--- a/finetuning/it_datasets/qa_dataset/qa_it_zaghouan_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_zaghouan_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA55"/>
+  <dimension ref="A1:AB55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -667,14 +672,62 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for something fun to do, check out Espace de Loisirs La Grotte located at Espace de Loisirs La Grotte, Zaghouan. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 36.402915, 10.142236. For more details, visit their website or call them at 23 037 303.</t>
+          <t>Espace de Loisirs La Grotte is a cafe located in Zaghouan, Tunisia. It is open from 7am to midnight and is rated 4.4 out of 5 stars on Google. The cafe has a featured image of its exterior and 32 reviews. The link to the Google Maps page for the cafe is https://www.google.com/maps/place/Espace+de+Loisirs+La+Grotte/data=!4m7!3m6!1s0x12fd112d5adae3b5:0xa7602fb4e1db770d!8m2!3d36.3994608!4d10.1463217!16s%2Fg%2F11vppc19dx!19sChIJtePaWi0R_RIRDXfb4bQvYKc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Cafe that's perfect for a day trip in Zaghouan?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina de Zaghouan, a UNESCO World Heritage Site with stunning architecture and narrow streets.
+Mid-Morning: Visit the Parc National de Zaghouan, a beautiful park with hiking trails, waterfalls, and caves.
+Midday: Enjoy lunch at Bon'Gosto, a highly-rated pizzeria in Zaghouan, known for its delicious pizzas.
+Afternoon: Take a guided tour of the Zaghouan Aqueduct, an impressive Roman engineering marvel that transported water to Carthage.
+Evening: Experience the lively nightlife at "Salle des fêtes mariem", a top-rated discotheque in Zaghouan.
+Night: Relax at DAR AIDA ZAGHOUAN, a charming guesthouse with a cozy atmosphere and comfortable rooms.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+This is the Café zaytouna, a cafe located in Zaghouan, Tunisia. It is likely close to location 10.142236° E, 36.402915° N.
+Located in the heart of Zaghouan, Time Out' is a cozy and welcoming establishment that offers a delightful café experience. With its convenient location, it's a perfect spot for locals and visitors alike. Time Out's menu features a tempting selection of drinks and snacks, making it an ideal place to relax and unwind.
+Fatma kaak warka zaghouan is a restaurant located in Zaghouan (Tunisia), offering a variety of dishes. The restaurant has a 4.5 star rating on Google with 2 reviews. The restaurant is located at the following coordinates: (36.403004870365, 10.143450019014).
+Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, at coordinates (36.397737458615, 10.145884861582). With a rating of 4.6 based on 83 reviews, it's a popular destination for visitors interested in exploring the rich history of the region.
+The Parc National de Zaghouan is a protected area in Zaghouan, Tunisia. It is known for its stunning natural beauty, including forests, waterfalls, and caves. The park's unique landscape provides a habitat for a variety of flora and fauna, including endangered species.
+The park is open 24 hours a day and offers a variety of activities for visitors, including hiking, picnicking, and camping. There are also a number of historical and archaeological sites in the park, making it a great place to learn about Tunisia's rich history.
+Located at an altitude of 2,976 meters, the coordinates are 36.40291 N, 10.14292 E.
+The Zaghouan Aqueduct is a historic aqueduct located near the city of Mohammedia in Tunisia. Built in the 2nd century AD by the Romans, the aqueduct was used to transport water from the Zaghouan Mountains to the city of Carthage. The aqueduct is 132 kilometers long and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination and is also used for agricultural purposes.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -780,12 +833,63 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in Zaghouan and looking for a top-rated cafe, check out L'art'doiz located at 1100 Rue D'environnement. With a 4.3 rating, it's a must-visit spot for coffee lovers. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.41836234334, 10.128480292988. For more details, visit their website at , or call them at 98 642 562.</t>
+          <t>L'art'doiz is a cafe in Zaghouan, Tunisia, located at (36.41836234334, 10.128480292988).
+It has a rating of 4.3 based on 28 reviews, and its main category is Cafe.
+Its workday timing is 06:00-00:00, and it is closed on [].
+The cafe's featured image is https://lh5.googleusercontent.com/p/AF1QipMIJtaQPBK5LMSG2IS5HgHRhw4YDcae1WsdVIp7=w408-h306-k-no</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where can you find a highly acclaimed cafe in Zaghouan with a 4.3 rating, located at 1100 Rue D'environnement?</t>
+          <t>Day Plan:
+Morning: Visit the historical Medina de Zaghouan to explore its ancient architecture and charming shops.
+Mid-Morning: Try local cuisine at the highly-rated restaurant BBQ Ain Zaghouane, known for its grilled dishes.
+Midday: Relax and take a guided tour of the impressive Zaghouan Aqueduct, an ancient Roman engineering marvel.
+Afternoon: Enjoy scenic views and engage in outdoor activities like hiking or picnicking at the beautiful Parc National de Zaghouan.
+Evening: Experience cultural immersion at Dar Aida Zaghouan, a cozy guesthouse with a restaurant, bar, and garden.
+Night: Participate in a lively event at the top-rated discotheque, Salle des Fêtes Mariem, for an unforgettable night out.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+L'Art'doiz is a cafe located in Zaghouan, Tunisia. It has a rating of 4.3 stars and offers a cozy atmosphere with a wide selection of drinks and snacks. The cafe is situated at 1100 Rue D'environnement and is open from 6:00AM to midnight, seven days a week.
+Located in the heart of Zaghouan, Time Out' is a cozy and welcoming establishment that offers a delightful café experience. With its convenient location, it's a perfect spot for locals and visitors alike. Time Out's menu features a tempting selection of drinks and snacks, making it an ideal place to relax and unwind.
+Fatma kaak warka zaghouan is a restaurant located in Zaghouan (Tunisia), offering a variety of dishes. The restaurant has a 4.5 star rating on Google with 2 reviews. The restaurant is located at the following coordinates: (36.403004870365, 10.143450019014).
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in the city of Zaghouan, Tunisia. It is a well-preserved walled city with narrow streets, traditional houses, and a variety of shops and restaurants. The medina is home to a number of historical monuments, including the Great Mosque of Zaghouan, which was built in the 9th century. The Medina de Zaghouan is a popular tourist destination, and is known for its beautiful architecture and lively atmosphere.
+Parc National de Zaghouan is a national park located in Zaghouan, Tunisia. It is an attraction for tourism with the latitude of 36.40291 and the longitude of 10.14292. It is open 24/7 and offers an unforgettable experience to its visitors.
+The Zaghouan Aqueduct, located near the city of Zaghouan in Tunisia, is an ancient aqueduct built by the Romans to supply water to the city of Carthage. Constructed between 122 and 132 AD, the aqueduct is approximately 128 km in length and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination, featuring well-preserved remains that offer a glimpse into the architectural prowess of the ancient Romans. Its coordinates are 36.686405012742, 10.150125779401.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -891,12 +995,66 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in Zaghouan and looking for a great cafe, check out La Fabrica located at La Fabrica, Zaghouan 1100. This top-rated destination is perfect for Cafe lovers and has a rating of 4.9. It's open 24 hours a day and can be reached at 92 123 223. For more details, visit their website or check out their featured image at https://lh5.googleusercontent.com/p/AF1QipP8-qQKOmznuPWffh-4JvTHhAmgnlSh-yQWrUlU=w408-h530-k-no.</t>
+          <t>La Fabrica is a popular café located in Zaghouan, Tunisia. Known for its cozy ambiance and delectable offerings, La Fabrica has earned a 4.9 rating based on 24 reviews. It is renowned for its exquisite coffee and sweet treats. Customers rave about its 24/7 availability, making it an ideal spot for late-night cravings or early morning pick-me-ups.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe with a convenient 24-hour schedule in Zaghouan?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historical Medina de Zaghouan
+**Mid-Morning:**
+- Visit the impressive Parc National de Zaghouan
+**Midday:**
+- Try local cuisine at Zaghouan Tabouna, known for its traditional Tunisian dishes
+**Afternoon:**
+- Take a guided tour of the ancient Zaghouan Aqueduct, a marvel of Roman engineering
+**Evening:**
+- Enjoy a breathtaking sunset at the scenic Montagne de Zaghouan
+**Night:**
+- Dance the night away at the top-rated discotheque, Salle des fêtes mariem</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Espace de Loisirs La Grotte is a cafe located in Zaghouan, Tunisia. It has a rating of 4.4 out of 5 stars and is open from 7 am to midnight. The cafe offers a variety of food and drinks, and is a popular spot for locals and tourists alike. The cafe is located at 36.402915, 10.142236.
+Located in the heart of Zaghouan, Time Out' is a cozy and welcoming establishment that offers a delightful café experience. With its convenient location, it's a perfect spot for locals and visitors alike. Time Out's menu features a tempting selection of drinks and snacks, making it an ideal place to relax and unwind.
+Zaghouan Tabouna is a restaurant located in Zaghouan, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine. The restaurant is located at C42R+WF2 Zaghouan Tabouna, Rue Khaireddine, Zaghouan, and its coordinates are (36.402680864697, 10.141498690923). The restaurant is open from 08:30-22:00, and its average rating is 4.6 stars.
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in the city of Zaghouan, Tunisia. It is a well-preserved walled city with narrow streets, traditional houses, and a variety of shops and restaurants. The medina is home to a number of historical monuments, including the Great Mosque of Zaghouan, which was built in the 9th century. The Medina de Zaghouan is a popular tourist destination, and is known for its beautiful architecture and lively atmosphere.
+Parc National de Zaghouan is a renowned national park located in Zaghouan, Tunisia, with coordinates (36.40291, 10.14292). It boasts a high rating of 4.5 and is open 24 hours a day. Visitors can expect to explore the park's diverse landscapes, including its natural springs, waterfalls, and lush greenery. The park is a haven for nature enthusiasts, hikers, and those seeking a peaceful retreat.
+The Zaghouan Aqueduct is a historic aqueduct located near the city of Mohammedia in Tunisia. Built in the 2nd century AD by the Romans, the aqueduct was used to transport water from the Zaghouan Mountains to the city of Carthage. The aqueduct is 132 kilometers long and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination and is also used for agricultural purposes.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1002,15 +1160,62 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>For those in zaghouan searching for a delightful treat, visit Salon de The Damas situated at Salon de The Damas, C36, Zaghouan. 
-This highly-rated teahouse is a haven for Salon de the enthusiasts and provides an exceptional selection of options. 
-With an impressive rating of 4.1, it's a must-try destination. They are open from 07:00-02:00, so plan your visit accordingly. 
-For more details, their GPS coordinates are (36.402915, 10.142236). Call them at 54 186 964 to make a reservation or visit their website.</t>
+          <t>The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where in Zaghouan can you find a highly-rated teahouse with an exceptional selection and an impressive 4.1 rating?</t>
+          <t>Day Plan:
+Morning: Explore Medina de Zaghouan, a historic site with well-preserved architecture and cultural heritage.
+Mid-Morning: Visit Zaghouan Aqueduct, a UNESCO World Heritage Site, and marvel at its ancient arches and viaducts.
+Midday: Try local cuisine at Zaghouan Tabouna, offering traditional Tunisian and international dishes.
+Afternoon: Enjoy scenic views at Parc National de Zaghouan, a protected area with stunning natural beauty, including forests, waterfalls, and caves.
+Evening: Relax at Residence Seville - Ain Zaghouan, a 4.5-star hotel, and pamper yourself with amenities like a restaurant, bar, and garden.
+Night: Participate in a cultural and entertainment experience at Salle des Fêtes Mariem, a top-rated discotheque in Zaghouan.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Milano is a cafe located in Zaghouan, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and sandwiches. The cafe is located at 94XW+VH7 Cafe Milano, Av. 14 janvier, Zaghouan. Latitude: 36.39970598805, Longitude: 10.14909209247.
+Located in the heart of Zaghouan, Time Out' is a cozy and welcoming establishment that offers a delightful café experience. With its convenient location, it's a perfect spot for locals and visitors alike. Time Out's menu features a tempting selection of drinks and snacks, making it an ideal place to relax and unwind.
+Zaghouan Tabouna is a restaurant located in Zaghouan, Tunisia. It offers a wide variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at C42R+WF2 Zaghouan Tabouna, Rue Khaireddine, Zaghouan, Tunisia.
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, known for its well-preserved historic architecture and rich cultural heritage. Its prime location offers a unique blend of history, culture, and local attractions.
+The Parc National de Zaghouan is a protected area in Zaghouan, Tunisia. It is known for its stunning natural beauty, including forests, waterfalls, and caves. The park's unique landscape provides a habitat for a variety of flora and fauna, including endangered species.
+The park is open 24 hours a day and offers a variety of activities for visitors, including hiking, picnicking, and camping. There are also a number of historical and archaeological sites in the park, making it a great place to learn about Tunisia's rich history.
+Located at an altitude of 2,976 meters, the coordinates are 36.40291 N, 10.14292 E.
+Zaghouan Aqueduct is a historical monument located in Zaghouan, Tunisia. It is an ancient Roman aqueduct that used to transport water from springs in the Zaghouan Mountains to the city of Carthage. The aqueduct is a UNESCO World Heritage Site. It is known for its arches and viaducts, which are still standing today. The aqueduct is a popular tourist destination, and it offers a glimpse into the history and culture of Tunisia.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1116,12 +1321,62 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a great cafe, check out Grech Coffee located at Rue 20 Mars, Zaghouan 1100. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.404729191151, 10.140551547855. For more details, visit their website or call them at 50 554 971.</t>
+          <t>Grech Coffee is a highly-rated (4.9 stars) cafe located in Zaghouan, Tunisia. It offers a cozy ambiance and serves a variety of coffee and other beverages, making it a popular spot for locals and tourists alike. The cafe is conveniently situated near the city center and is easily accessible.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>If you're in Zaghouan searching for a top-rated cafe with a wide range of categories, where can you find Grech Coffee, known for its 4.9 rating and unique atmosphere?</t>
+          <t>Day Plan:
+Morning: Exploring Medina de Zaghouan for its historical architecture and cultural heritage.
+Mid-Morning: Trying local cuisine at Restaurant La Joconde for a delightful dining experience.
+Midday: Visiting Zaghouan Aqueduct, a historical UNESCO World Heritage Site.
+Afternoon: Enjoying scenic views at Parc National de Zaghouan, a protected area known for its natural beauty.
+Evening: Participating in a guided tour of the ancient Roman aqueduct, Zaghouan Aqueduct, to learn about its history and significance.
+Night: Relaxing with a traditional Hammam experience at a local spa or hotel.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Salon de the Theatro, located in Zaghouan, Tunisia (coordinates: 36.402915, 10.142236), is a popular cafe offering a range of services and amenities. Open daily from 05:30 to 22:30, the cafe has received positive reviews for its offerings and convenient location.
+Located in the heart of Zaghouan, Time Out' is a cozy and welcoming establishment that offers a delightful café experience. With its convenient location, it's a perfect spot for locals and visitors alike. Time Out's menu features a tempting selection of drinks and snacks, making it an ideal place to relax and unwind.
+Restaurant La Joconde is a popular eatery situated in Zaghouan, Tunisia. Boasting a rating of 4.4, it remains closed on Sundays and operates from 9:00 AM to 4:00 PM on other days. Located at C43R+4HF, it offers a wide range of dining options. With its convenient location and inviting atmosphere, Restaurant La Joconde is a sought-after destination for both locals and visitors.
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, known for its well-preserved historic architecture and rich cultural heritage. Its prime location offers a unique blend of history, culture, and local attractions.
+The Parc National de Zaghouan is a protected area in Zaghouan, Tunisia. It is known for its stunning natural beauty, including forests, waterfalls, and caves. The park's unique landscape provides a habitat for a variety of flora and fauna, including endangered species.
+The park is open 24 hours a day and offers a variety of activities for visitors, including hiking, picnicking, and camping. There are also a number of historical and archaeological sites in the park, making it a great place to learn about Tunisia's rich history.
+Located at an altitude of 2,976 meters, the coordinates are 36.40291 N, 10.14292 E.
+Zaghouan Aqueduct is a historical monument located in Zaghouan, Tunisia. It is an ancient Roman aqueduct that used to transport water from springs in the Zaghouan Mountains to the city of Carthage. The aqueduct is a UNESCO World Heritage Site. It is known for its arches and viaducts, which are still standing today. The aqueduct is a popular tourist destination, and it offers a glimpse into the history and culture of Tunisia.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1227,12 +1482,60 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for something fun to do, check out Cafe Malouf located at C42V+CJR Cafe Malouf. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 05:00-21:00. To get there, use these GPS coordinates: 36.4009928, 10.1440555. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Malouf/data=!4m7!3m6!1s0x12fd110db482ebf1:0xfe3ab43f37b81c5b!8m2!3d36.4011086!4d10.1440142!16s%2Fg%2F12ltfg0r3!19sChIJ8euCtA0R_RIRWxy4Nz-0Ov4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 806 738.</t>
+          <t>**Cafe Malouf**, located in Zaghouan, Tunisia, is a renowned cafe frequented by locals and tourists alike. Situated at the heart of the city, it offers a cozy ambiance and a warm atmosphere. The cafe boasts a rating of 4.3 stars, highlighting its excellence in service and offerings. It is open daily from 5:00 AM to 9:00 PM, making it an ideal destination for early risers and late-night coffee enthusiasts.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe with a 4.3 rating, making it a must-visit spot in Zaghouan?</t>
+          <t>Day Plan:
+Morning: Explore the historical Medina de Zaghouan.
+Mid-Morning: Visit the UNESCO World Heritage-listed Zaghouan Aqueduct, an ancient Roman marvel.
+Midday: Try local cuisine at Mechoui Zaghouan for a truly authentic dining experience.
+Afternoon: Immerse yourself in nature at Parc National de Zaghouan, offering scenic landscapes and recreational activities.
+Evening: Enjoy a relaxing evening at Residence Seville - Ain Zaghouan, a charming hotel with a peaceful ambiance.
+Night: Experience the lively nightlife scene at Salle des fêtes mariem, a popular discotheque.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Malouf**, located in Zaghouan, Tunisia, is a renowned cafe frequented by locals and tourists alike. Situated at the heart of the city, it offers a cozy ambiance and a warm atmosphere. The cafe boasts a rating of 4.3 stars, highlighting its excellence in service and offerings. It is open daily from 5:00 AM to 9:00 PM, making it an ideal destination for early risers and late-night coffee enthusiasts.
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+Mechoui Zaghouan, located in Zaghouan, Tunisia, is a 4.2-rated restaurant with 17 reviews. It is a popular spot open 24 hours a day, offering a range of dishes to its customers. Its exact location is at coordinates (36.402915, 10.142236).
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in the city of Zaghouan, Tunisia. It is a well-preserved walled city with narrow streets, traditional houses, and a variety of shops and restaurants. The medina is home to a number of historical monuments, including the Great Mosque of Zaghouan, which was built in the 9th century. The Medina de Zaghouan is a popular tourist destination, and is known for its beautiful architecture and lively atmosphere.
+Parc National de Zaghouan is a national park located in Zaghouan, Tunisia. It is an attraction for tourism with the latitude of 36.40291 and the longitude of 10.14292. It is open 24/7 and offers an unforgettable experience to its visitors.
+Zaghouan Aqueduct is a historical monument located in Zaghouan, Tunisia. It is an ancient Roman aqueduct that used to transport water from springs in the Zaghouan Mountains to the city of Carthage. The aqueduct is a UNESCO World Heritage Site. It is known for its arches and viaducts, which are still standing today. The aqueduct is a popular tourist destination, and it offers a glimpse into the history and culture of Tunisia.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1338,13 +1641,60 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a top-rated Cafe, check out Black Tap located at 95W3+HGV Black Tap, Av. 14 janvier, Zaghouan. 
-It has a rating of 4.1 and is open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 36.39970598805, 10.14909209247. For more details, call them at 25 459 750.</t>
+          <t>Black Tap is a trendy cafe located in Zaghouan, Tunisia. It offers a cozy ambiance and serves delicious coffee, snacks, and desserts. Located at (36.39970598805, 10.14909209247), it's easily accessible and has flexible hours, operating from 8 AM to midnight.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Which highly-rated cafe in Zaghouan, GPS coordinates 36.39970598805, 10.14909209247, is open from 8:00 AM to midnight?</t>
+          <t>Day Plan:
+Morning: Explore the historical Medina de Zaghouan, a well-preserved walled city with traditional architecture and bustling markets.
+Mid-Morning: Visit the Zaghouan Aqueduct, an impressive ancient Roman engineering marvel and a popular tourist destination.
+Midday: Indulge in local cuisine at BBQ Ain Zaghouane, a highly-rated restaurant specializing in grilled dishes.
+Afternoon: Take a scenic drive to the Montagne de Zaghouan, a natural reserve known for its diverse landscapes and wildlife. Enjoy hiking or picnicking amidst the beautiful surroundings.
+Evening: As the sun sets, head to Sunset coffee for a relaxing ambiance and a delightful coffee experience.
+Night: Experience the vibrant nightlife of Zaghouan by visiting "Salle des fêtes mariem," a top-rated discotheque with a lively atmosphere and unforgettable entertainment.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sunset coffee is located in the city of Zaghouan, Tunisia, offering a unique and alluring experience to coffee enthusiasts. This cafe has garnered rave reviews, earning an impressive 5.0 rating from its patrons. The featured image provides a captivating glimpse of the cafe's cozy and inviting ambiance. Operating 24 hours a day, Sunset coffee is the perfect destination for those seeking a caffeine fix or a delectable treat any time of day.
+Located in the heart of Zaghouan, Time Out' is a cozy and welcoming establishment that offers a delightful café experience. With its convenient location, it's a perfect spot for locals and visitors alike. Time Out's menu features a tempting selection of drinks and snacks, making it an ideal place to relax and unwind.
+Layroo pizza is a restaurant located at (36.402915, 10.142236) in zaghouan. It has a rating of 4.0 and is open from 09:00-00:00. It offers a variety of dishes and has a featured image of https://lh5.googleusercontent.com/p/AF1QipOj2MfYceAgDSZZYYbTWYRgJoXAh9o3Fnr52mbE=w408-h306-k-no.
+Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in the city of Zaghouan, Tunisia. It is a well-preserved walled city with narrow streets, traditional houses, and a variety of shops and restaurants. The medina is home to a number of historical monuments, including the Great Mosque of Zaghouan, which was built in the 9th century. The Medina de Zaghouan is a popular tourist destination, and is known for its beautiful architecture and lively atmosphere.
+Parc National de Zaghouan is a national park located in Zaghouan, Tunisia. It is an attraction for tourism with the latitude of 36.40291 and the longitude of 10.14292. It is open 24/7 and offers an unforgettable experience to its visitors.
+The Zaghouan Aqueduct, located near the city of Zaghouan in Tunisia, is an ancient aqueduct built by the Romans to supply water to the city of Carthage. Constructed between 122 and 132 AD, the aqueduct is approximately 128 km in length and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination, featuring well-preserved remains that offer a glimpse into the architectural prowess of the ancient Romans. Its coordinates are 36.686405012742, 10.150125779401.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1442,12 +1792,67 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a great cafe, check out Cafe gypsy located at C48G+C9R Cafe gypsy, Unnamed Road, Zaghouan. This cafe offers a range of cafe options. With a rating of 4.3, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.402915, 10.142236. For more details, visit their website  at http:// or call them at nan.</t>
+          <t>Cafe gypsy is a cafe located in Zaghouan, Tunisia. It offers a variety of food and drinks, and has a rating of 4.3 on Google. The cafe is located at the coordinates (36.402915, 10.142236).</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe with a rating of 4.3 in Zaghouan?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historic Medina de Zaghouan for its well-preserved architecture and cultural significance.
+Mid-Morning:
+- Visit Zaghouan Aqueduct, a UNESCO World Heritage Site, to marvel at its ancient Roman engineering.
+Midday:
+- Savor local cuisine at Layroo pizza, known for its delicious dishes and high ratings.
+Afternoon:
+- Immerse yourself in the natural beauty of Parc National de Zaghouan, offering hiking and exploration opportunities.
+Evening:
+- Take a guided tour of Résidence Séville, a historic hotel with elegant interiors and a glimpse into Zaghouan's past.
+Night:
+- Enjoy a lively evening at "Salle des fêtes mariem," a top-rated discotheque with vibrant entertainment options.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Café Errahba**
+Nestled in the vibrant city of Zaghouan, Café Errahba is a cozy and welcoming destination for coffee lovers and casual diners alike. Located at coordinates (36.402915, 10.142236), this popular café serves up delectable treats and a warm ambiance.
+Located in the heart of Zaghouan, Time Out' is a cozy and welcoming establishment that offers a delightful café experience. With its convenient location, it's a perfect spot for locals and visitors alike. Time Out's menu features a tempting selection of drinks and snacks, making it an ideal place to relax and unwind.
+Layroo pizza is a restaurant located at (36.402915, 10.142236) in zaghouan. It has a rating of 4.0 and is open from 09:00-00:00. It offers a variety of dishes and has a featured image of https://lh5.googleusercontent.com/p/AF1QipOj2MfYceAgDSZZYYbTWYRgJoXAh9o3Fnr52mbE=w408-h306-k-no.
+Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, known for its well-preserved historic architecture and rich cultural heritage. Its prime location offers a unique blend of history, culture, and local attractions.
+Parc National de Zaghouan is a national park located in Zaghouan, Tunisia. It is an attraction for tourism with the latitude of 36.40291 and the longitude of 10.14292. It is open 24/7 and offers an unforgettable experience to its visitors.
+Zaghouan Aqueduct is a historical monument located in Zaghouan, Tunisia. It is an ancient Roman aqueduct that used to transport water from springs in the Zaghouan Mountains to the city of Carthage. The aqueduct is a UNESCO World Heritage Site. It is known for its arches and viaducts, which are still standing today. The aqueduct is a popular tourist destination, and it offers a glimpse into the history and culture of Tunisia.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1541,12 +1946,69 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a top-rated cafe, head to Cafe Errahba, located at 94XW+GWR Cafe Errahba, Zaghouan. This 5.0-rated destination is a favorite among cafe lovers and offers a range of cafe options. To get there, use the coordinates: 36.402915, 10.142236.</t>
+          <t>**Café Errahba**
+Nestled in the vibrant city of Zaghouan, Café Errahba is a cozy and welcoming destination for coffee lovers and casual diners alike. Located at coordinates (36.402915, 10.142236), this popular café serves up delectable treats and a warm ambiance.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Which top-rated cafe in Zaghouan with a 5.0-star rating is conveniently located at the coordinates 36.402915, 10.142236?</t>
+          <t>**Day Plan:**
+**Morning:**
+* **Explore Medina de Zaghouan:** Discover the historical site and delve into the rich history of the region.
+**Mid-Morning:**
+* **Try local cuisine at BBQ Ain Zaghouane:** Savor grilled delicacies at this highly-rated restaurant.
+**Midday:**
+* **Visit Parc National de Zaghouan:** Escape into nature's embrace and admire its waterfalls, caves, and lush greenery. Enjoy a picnic amidst the beautiful scenery.
+**Afternoon:**
+* **Enjoy scenic views at Montagne de Zaghouan:** Embark on a hike or drive through this natural reserve and marvel at its forests, mountains, and lakes.
+**Evening:**
+* **Relax with a traditional spa experience at Résidence Séville:** Unwind and rejuvenate with a massage or hammam treatment at this opulent hotel.
+**Night:**
+* **Participate in a lively cultural event at Salle des fêtes mariem:** Dance the night away at this popular discotheque and immerse yourself in the local nightlife scene.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Kaak Warka is a cafe located at the coordinates (36.402915, 10.142236) in Zaghouan, Tunisia. With 5.0 of rating on Google Maps, it offers its services in the categories of cafes.
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+Restaurant La Joconde is a popular eatery situated in Zaghouan, Tunisia. Boasting a rating of 4.4, it remains closed on Sundays and operates from 9:00 AM to 4:00 PM on other days. Located at C43R+4HF, it offers a wide range of dining options. With its convenient location and inviting atmosphere, Restaurant La Joconde is a sought-after destination for both locals and visitors.
+Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, at coordinates (36.397737458615, 10.145884861582). With a rating of 4.6 based on 83 reviews, it's a popular destination for visitors interested in exploring the rich history of the region.
+The Parc National de Zaghouan is a protected area in Zaghouan, Tunisia. It is known for its stunning natural beauty, including forests, waterfalls, and caves. The park's unique landscape provides a habitat for a variety of flora and fauna, including endangered species.
+The park is open 24 hours a day and offers a variety of activities for visitors, including hiking, picnicking, and camping. There are also a number of historical and archaeological sites in the park, making it a great place to learn about Tunisia's rich history.
+Located at an altitude of 2,976 meters, the coordinates are 36.40291 N, 10.14292 E.
+The Zaghouan Aqueduct is a historic aqueduct located near the city of Mohammedia in Tunisia. Built in the 2nd century AD by the Romans, the aqueduct was used to transport water from the Zaghouan Mountains to the city of Carthage. The aqueduct is 132 kilometers long and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination and is also used for agricultural purposes.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1648,12 +2110,62 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in Zaghouan and looking for some coffee, check out Cafe de Telephone located at 94XX+HHW Cafe de Telephone, Zaghouan. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 05:00-23:00. To get there, use these GPS coordinates: 36.3991177, 10.1489631.</t>
+          <t>Located in Zaghouan, Cafe de Telephone is a popular spot with a 4.2 rating based on 5 reviews. It offers a welcoming and casual ambiance and operates from 5:00 am to 11:00 pm daily. While specific details about its menu and offerings are not provided, Cafe de Telephone is known for its delightful cafe experience.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Where in Zaghouan can you find the highly-rated Cafe de Telephone, renowned for its diverse coffee offerings?</t>
+          <t>Day Plan:
+Morning: Explore the historical Medina de Zaghouan and learn about its rich cultural heritage.
+Mid-Morning: Visit the Parc National de Zaghouan and enjoy hiking or picnicking amidst stunning natural beauty.
+Midday: Try the local cuisine at TASSOU JUICE, savoring the authentic flavors of Zaghouan.
+Afternoon: Discover the impressive Zaghouan Aqueduct, a testament to Roman engineering, and admire its grandeur.
+Evening: Experience cultural immersion at the Salle des fêtes mariem, a top-rated discotheque, and dance the night away.
+Night: Stay at Résidence Séville for a comfortable and convenient accommodation.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Grech Coffee is a cozy cafe located in the heart of Zaghouan, Tunisia. Open from 6am to midnight, it offers a warm and inviting atmosphere for locals and tourists alike. With a rating of 4.9 stars based on 11 reviews, Grech Coffee is highly regarded for its delicious coffee and friendly service. Coordinates: (36.404729191151, 10.140551547855)
+Located in the heart of Zaghouan, Time Out' is a cozy and welcoming establishment that offers a delightful café experience. With its convenient location, it's a perfect spot for locals and visitors alike. Time Out's menu features a tempting selection of drinks and snacks, making it an ideal place to relax and unwind.
+TASSOU JUICE is a restaurant located in Zaghouan, Tunisia, close to the city center. It's open every day from 7:00 AM to midnight and offers a variety of food options.
+Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, known for its well-preserved historic architecture and rich cultural heritage. Its prime location offers a unique blend of history, culture, and local attractions.
+The Parc National de Zaghouan is a protected area in Zaghouan, Tunisia. It is known for its stunning natural beauty, including forests, waterfalls, and caves. The park's unique landscape provides a habitat for a variety of flora and fauna, including endangered species.
+The park is open 24 hours a day and offers a variety of activities for visitors, including hiking, picnicking, and camping. There are also a number of historical and archaeological sites in the park, making it a great place to learn about Tunisia's rich history.
+Located at an altitude of 2,976 meters, the coordinates are 36.40291 N, 10.14292 E.
+The Zaghouan Aqueduct is a historic aqueduct located near the city of Mohammedia in Tunisia. Built in the 2nd century AD by the Romans, the aqueduct was used to transport water from the Zaghouan Mountains to the city of Carthage. The aqueduct is 132 kilometers long and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination and is also used for agricultural purposes.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1759,14 +2271,60 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for something fun to do, check out Sunset coffee located at C3CX+8W Sunset coffee, Zaghouan. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.402915, 10.142236. For more details, visit their website at https://www.google.com/maps/place/Sunset+coffee/data=!4m7!3m6!1s0x12fd1140294337df:0x6d8c082729c89799!8m2!3d36.4207895!4d10.0997595!16s%2Fg%2F11ssty024_!19sChIJ3zdDKUAR_RIRmZfIKScIjG0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 542 020.</t>
+          <t>Sunset coffee is located in the city of Zaghouan, Tunisia, offering a unique and alluring experience to coffee enthusiasts. This cafe has garnered rave reviews, earning an impressive 5.0 rating from its patrons. The featured image provides a captivating glimpse of the cafe's cozy and inviting ambiance. Operating 24 hours a day, Sunset coffee is the perfect destination for those seeking a caffeine fix or a delectable treat any time of day.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where in Zaghouan can you find a top-rated Cafe with 24-hour營業 hours and a rating of 5.0?</t>
+          <t>Day Plan:
+Morning: Explore the historical Medina de Zaghouan, admire its preserved architecture, and delve into the local culture.
+Mid-Morning: Visit the nearby Natural Water Source and discover its unique waterbed offerings.
+Midday: Savor the authentic flavors of Zaghouan by lunching at the highly-rated Zaghouan Tabouna, renowned for its traditional Tunisian cuisine.
+Afternoon: Escape to the scenic Parc National de Zaghouan, immerse yourself in nature, and embark on a rejuvenating hike amidst its lush landscapes.
+Evening: Indulge in a delightful dinner at BBQ Ain Zaghouane, savoring its exquisite grilled dishes while enjoying the vibrant ambiance.
+Night: Experience the energetic nightlife of Zaghouan by visiting the top-rated discotheque, "Salle des fêtes mariem," and dancing the night away.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+L'Art'doiz is a cafe located in Zaghouan, Tunisia. It has a rating of 4.3 stars and offers a cozy atmosphere with a wide selection of drinks and snacks. The cafe is situated at 1100 Rue D'environnement and is open from 6:00AM to midnight, seven days a week.
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+Zaghouan Tabouna is a restaurant located in Zaghouan, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine. The restaurant is located at C42R+WF2 Zaghouan Tabouna, Rue Khaireddine, Zaghouan, and its coordinates are (36.402680864697, 10.141498690923). The restaurant is open from 08:30-22:00, and its average rating is 4.6 stars.
+Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, known for its well-preserved historic architecture and rich cultural heritage. Its prime location offers a unique blend of history, culture, and local attractions.
+Parc National de Zaghouan is a renowned national park located in Zaghouan, Tunisia, with coordinates (36.40291, 10.14292). It boasts a high rating of 4.5 and is open 24 hours a day. Visitors can expect to explore the park's diverse landscapes, including its natural springs, waterfalls, and lush greenery. The park is a haven for nature enthusiasts, hikers, and those seeking a peaceful retreat.
+The Zaghouan Aqueduct, located near the city of Zaghouan in Tunisia, is an ancient aqueduct built by the Romans to supply water to the city of Carthage. Constructed between 122 and 132 AD, the aqueduct is approximately 128 km in length and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination, featuring well-preserved remains that offer a glimpse into the architectural prowess of the ancient Romans. Its coordinates are 36.686405012742, 10.150125779401.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1868,12 +2426,60 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a top-rated Restaurant, check out Zaghouan Tabouna located at C42R+WF2 Zaghouan Tabouna, Rue Khaireddine, Zaghouan. With a rating of 4.6, it's perfect for Restaurant lovers. It's open during these hours: 08:30-22:00. To get there, use these GPS coordinates: 36.402680864697, 10.141498690923. For more details, visit their website at https://www.google.com/maps/place/Zaghouan+Tabouna/data=!4m7!3m6!1s0x12fd110e6ba4cbdb:0x790c136105e32c61!8m2!3d36.4022554!4d10.1411435!16s%2Fg%2F11f50s_9_k!19sChIJ28ukaw4R_RIRYSzjBWETDHk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Zaghouan Tabouna is a restaurant located in Zaghouan, Tunisia. It offers a wide variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at C42R+WF2 Zaghouan Tabouna, Rue Khaireddine, Zaghouan, Tunisia.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where is the highly rated Restaurant Zaghouan Tabouna, located in Zaghouan?</t>
+          <t>Day Plan:
+Morning: Explore the Medina de Zaghouan, a historical site with well-preserved walled streets, traditional houses, and shops.
+Mid-Morning: Visit the Zaghouan Aqueduct, an impressive example of Roman engineering that transported water from the Zaghouan Mountains to Carthage.
+Midday: Try local cuisine at Mechoui Zaghouan, a popular restaurant offering a range of dishes and rated 4.2 out of 5.
+Afternoon: Enjoy scenic views at the Parc National de Zaghouan, known for its forests, mountains, and lakes, and engage in outdoor activities like hiking or picnicking.
+Evening: Experience cultural immersion at the Salon de Thé Damas, a cozy teahouse with a 4.1 rating and a relaxed atmosphere for tea enthusiasts.
+Night: Participate in the vibrant nightlife at "Salle des fêtes mariem," a top-rated discotheque offering an unforgettable entertainment experience.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Black Tap is a trendy cafe located in Zaghouan, Tunisia. It offers a cozy ambiance and serves delicious coffee, snacks, and desserts. Located at (36.39970598805, 10.14909209247), it's easily accessible and has flexible hours, operating from 8 AM to midnight.
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+Mechoui Zaghouan, located in Zaghouan, Tunisia, is a 4.2-rated restaurant with 17 reviews. It is a popular spot open 24 hours a day, offering a range of dishes to its customers. Its exact location is at coordinates (36.402915, 10.142236).
+Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in the city of Zaghouan, Tunisia. It is a well-preserved walled city with narrow streets, traditional houses, and a variety of shops and restaurants. The medina is home to a number of historical monuments, including the Great Mosque of Zaghouan, which was built in the 9th century. The Medina de Zaghouan is a popular tourist destination, and is known for its beautiful architecture and lively atmosphere.
+Parc National de Zaghouan is a national park located in Zaghouan, Tunisia. It is an attraction for tourism with the latitude of 36.40291 and the longitude of 10.14292. It is open 24/7 and offers an unforgettable experience to its visitors.
+The Zaghouan Aqueduct is a historic aqueduct located near the city of Mohammedia in Tunisia. Built in the 2nd century AD by the Romans, the aqueduct was used to transport water from the Zaghouan Mountains to the city of Carthage. The aqueduct is 132 kilometers long and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination and is also used for agricultural purposes.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1983,12 +2589,60 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in Zaghouan and looking for a top-rated Cafe, check out Cafe Classico mqh~ klsykw zGwn located at C43R+7R9 Cafe Classico mqh~ klsykw zGwn, Av. 14 janvier, Zaghouan. With a rating of 4.5, it's a must-visit spot for Cafe lovers. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 36.39970598805, 10.14909209247. For more details, visit their website at https://www.wix.com/dashboard/4b10b8ca-f1a6-45c0-b42e-cde5a90be260/settings/%3FreferralInfo%3Domni-setup or call them at 29 895 912.</t>
+          <t>Cafe Classico is a highly-rated cafe located in Zaghouan, Tunisia. It operates 24 hours a day, making it a convenient spot for both locals and tourists alike. The cafe offers a cozy and welcoming ambiance, with friendly staff and a great selection of beverages and snacks. Its central location, just off Av. 14 janvier, makes it easily accessible. Cafe Classico is known for its delicious coffee, tasty pastries, and warm atmosphere, making it a popular destination for coffee lovers and those seeking a relaxing break.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where in Zaghouan can you find Cafe Classico mqh~ klsykw zGwn, a top-rated Cafe with a 4.5 rating and extended hours?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina de Zaghouan (Historical site)
+Mid-Morning: Visit the stunning Parc National de Zaghouan (Park)
+Midday: Savor delicious local cuisine at Zaghouan Tabouna (Restaurant)
+Afternoon: Discover the engineering marvel of the Zaghouan Aqueduct (Landmark)
+Evening: Relax with a soothing massage at Résidence Séville (Hotel)
+Night: Enjoy a memorable evening at Salle des Fêtes Mariem (Discotheque)</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+L'Art'doiz is a cafe located in Zaghouan, Tunisia. It has a rating of 4.3 stars and offers a cozy atmosphere with a wide selection of drinks and snacks. The cafe is situated at 1100 Rue D'environnement and is open from 6:00AM to midnight, seven days a week.
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+Zaghouan Tabouna is a restaurant located in Zaghouan, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine. The restaurant is located at C42R+WF2 Zaghouan Tabouna, Rue Khaireddine, Zaghouan, and its coordinates are (36.402680864697, 10.141498690923). The restaurant is open from 08:30-22:00, and its average rating is 4.6 stars.
+Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, at coordinates (36.397737458615, 10.145884861582). With a rating of 4.6 based on 83 reviews, it's a popular destination for visitors interested in exploring the rich history of the region.
+Parc National de Zaghouan is a renowned national park located in Zaghouan, Tunisia, with coordinates (36.40291, 10.14292). It boasts a high rating of 4.5 and is open 24 hours a day. Visitors can expect to explore the park's diverse landscapes, including its natural springs, waterfalls, and lush greenery. The park is a haven for nature enthusiasts, hikers, and those seeking a peaceful retreat.
+The Zaghouan Aqueduct, located near the city of Zaghouan in Tunisia, is an ancient aqueduct built by the Romans to supply water to the city of Carthage. Constructed between 122 and 132 AD, the aqueduct is approximately 128 km in length and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination, featuring well-preserved remains that offer a glimpse into the architectural prowess of the ancient Romans. Its coordinates are 36.686405012742, 10.150125779401.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2090,15 +2744,60 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a great cafe, check out Cafe Milano located at 94XW+VH7 Cafe Milano, Av. 14 janvier, Zaghouan. 
-This top-rated destination is perfect for cafe lovers and offers a range of options to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 04:55-10:00. 
-To get there, use these GPS coordinates: 36.39970598805, 10.14909209247.</t>
+          <t>Cafe Milano is a cafe located in Zaghouan, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and sandwiches. The cafe is located at 94XW+VH7 Cafe Milano, Av. 14 janvier, Zaghouan. Latitude: 36.39970598805, Longitude: 10.14909209247.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated (4.0 stars) cafe with a range of options in Zaghouan?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina de Zaghouan and admire its traditional architecture.
+Mid-Morning: Try local cuisine at Bon'Gosto, a highly-rated pizzeria.
+Midday: Visit the Zaghouan Aqueduct, an impressive Roman engineering feat.
+Afternoon: Enjoy a relaxing walk in the scenic Parc National de Zaghouan.
+Evening: Experience the lively nightlife at "Salle des fêtes mariem", a top-rated discotheque.
+Night: Enjoy a memorable dinner at BBQ Ain Zaghouane, known for its grilled dishes.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"next one" is a cafe located in Zaghouan, Tunisia. The cafe has a rating of 4.3 out of 5 stars on Google Maps and features a menu that includes a variety of coffee drinks, pastries, and sandwiches. "next one" is situated at coordinates (36.402915, 10.142236) and offers a warm and inviting atmosphere for customers to relax and enjoy their favorite beverages and snacks.
+Located in the heart of Zaghouan, Time Out' is a cozy and welcoming establishment that offers a delightful café experience. With its convenient location, it's a perfect spot for locals and visitors alike. Time Out's menu features a tempting selection of drinks and snacks, making it an ideal place to relax and unwind.
+Bruno Salah is a restaurant in Zaghouan, Tunisia, offering a variety of dishes including sandwiches. Its location is 36.397737458615, 10.145884861582.
+Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in the city of Zaghouan, Tunisia. It is a well-preserved walled city with narrow streets, traditional houses, and a variety of shops and restaurants. The medina is home to a number of historical monuments, including the Great Mosque of Zaghouan, which was built in the 9th century. The Medina de Zaghouan is a popular tourist destination, and is known for its beautiful architecture and lively atmosphere.
+Parc National de Zaghouan is a national park located in Zaghouan, Tunisia. It is an attraction for tourism with the latitude of 36.40291 and the longitude of 10.14292. It is open 24/7 and offers an unforgettable experience to its visitors.
+The Zaghouan Aqueduct is a historic aqueduct located near the city of Mohammedia in Tunisia. Built in the 2nd century AD by the Romans, the aqueduct was used to transport water from the Zaghouan Mountains to the city of Carthage. The aqueduct is 132 kilometers long and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination and is also used for agricultural purposes.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2196,12 +2895,61 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a great Cafe, check out dr ljdwd zGwn located at C47C+8PM dr ljdwd zGwn, Zaghouan. This top-rated destination has a rating of 5.0, making it a must-visit spot. To get there, use these GPS coordinates: 36.402915, 10.142236.</t>
+          <t>**Dr Ljdwd Zgwn Cafe**
+Located at coordinates (36.402915, 10.142236) in Zaghouan, Tunisia, Dr Ljdwd Zgwn Cafe is a popular spot for locals and tourists alike. With a rating of 5.0 stars based on 4 reviews, this cafe offers a cozy ambiance and delicious offerings. Unfortunately, no further information about its menu or amenities is available.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Where can you find the highly-rated Cafe dr ljdwd zGwn in Zaghouan, with a perfect 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore Medina de Zaghouan
+Mid-Morning: Try local cuisine at Fatma kaak warka zaghouan
+Midday: Visit Parc National de Zaghouan
+Afternoon: Enjoy a scenic view at Montagne de Zaghouan
+Evening: Participate in a nightlife event at "Salle des fêtes mariem"
+Night: Relax with a drink at Choco Crepe</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Zaghouan, Cafe de Telephone is a popular spot with a 4.2 rating based on 5 reviews. It offers a welcoming and casual ambiance and operates from 5:00 am to 11:00 pm daily. While specific details about its menu and offerings are not provided, Cafe de Telephone is known for its delightful cafe experience.
+Located in the heart of Zaghouan, Time Out' is a cozy and welcoming establishment that offers a delightful café experience. With its convenient location, it's a perfect spot for locals and visitors alike. Time Out's menu features a tempting selection of drinks and snacks, making it an ideal place to relax and unwind.
+Fatma kaak warka zaghouan is a restaurant located in Zaghouan (Tunisia), offering a variety of dishes. The restaurant has a 4.5 star rating on Google with 2 reviews. The restaurant is located at the following coordinates: (36.403004870365, 10.143450019014).
+Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in the city of Zaghouan, Tunisia. It is a well-preserved walled city with narrow streets, traditional houses, and a variety of shops and restaurants. The medina is home to a number of historical monuments, including the Great Mosque of Zaghouan, which was built in the 9th century. The Medina de Zaghouan is a popular tourist destination, and is known for its beautiful architecture and lively atmosphere.
+Parc National de Zaghouan is a renowned national park located in Zaghouan, Tunisia, with coordinates (36.40291, 10.14292). It boasts a high rating of 4.5 and is open 24 hours a day. Visitors can expect to explore the park's diverse landscapes, including its natural springs, waterfalls, and lush greenery. The park is a haven for nature enthusiasts, hikers, and those seeking a peaceful retreat.
+Zaghouan Aqueduct is a historical monument located in Zaghouan, Tunisia. It is an ancient Roman aqueduct that used to transport water from springs in the Zaghouan Mountains to the city of Carthage. The aqueduct is a UNESCO World Heritage Site. It is known for its arches and viaducts, which are still standing today. The aqueduct is a popular tourist destination, and it offers a glimpse into the history and culture of Tunisia.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2299,12 +3047,60 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a nice Cafe, check out next one located at C542+92F next one, C28, Zaghouan. This top-rated destination is perfect for Cafe lovers and has a rating of 4.3. To get there, use these GPS coordinates: 36.402915, 10.142236. For more details, visit their website at  or call them at .</t>
+          <t>"next one" is a cafe located in Zaghouan, Tunisia. The cafe has a rating of 4.3 out of 5 stars on Google Maps and features a menu that includes a variety of coffee drinks, pastries, and sandwiches. "next one" is situated at coordinates (36.402915, 10.142236) and offers a warm and inviting atmosphere for customers to relax and enjoy their favorite beverages and snacks.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Where in Zaghouan can you find a highly-rated Cafe with GPS coordinates of 36.402915, 10.142236 and a website with more information?</t>
+          <t>Day Plan:
+Morning: Explore the historical Zaghouan Aqueduct, a testament to Roman engineering prowess.
+Mid-Morning: Visit the Medina de Zaghouan, immersing yourself in the city's rich cultural heritage and bustling atmosphere.
+Midday: Savor local cuisine at the highly-rated pizzeria Bon'Gosto, known for its delectable pizzas.
+Afternoon: Spend a rejuvenating afternoon at the Parc National de Zaghouan, exploring its lush greenery and natural springs.
+Evening: Participate in the lively atmosphere at "Salle des fêtes mariem," enjoying the vibrant nightlife scene of Zaghouan.
+Night: Relax and unwind at the DAR AIDA ZAGHOUAN, a charming guesthouse offering a tranquil retreat in the heart of the city.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+L'Art'doiz is a cafe located in Zaghouan, Tunisia. It has a rating of 4.3 stars and offers a cozy atmosphere with a wide selection of drinks and snacks. The cafe is situated at 1100 Rue D'environnement and is open from 6:00AM to midnight, seven days a week.
+Located in the heart of Zaghouan, Time Out' is a cozy and welcoming establishment that offers a delightful café experience. With its convenient location, it's a perfect spot for locals and visitors alike. Time Out's menu features a tempting selection of drinks and snacks, making it an ideal place to relax and unwind.
+Cheesy food is a restaurant located in Zaghouan, Tunisia (36.38127755, 10.18536985). Unfortunately, there is no detailed description or information available about this place. However, it is rated 4.6 out of 5 based on 5 reviews, suggesting that it is a well-regarded establishment in the area.
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, known for its well-preserved historic architecture and rich cultural heritage. Its prime location offers a unique blend of history, culture, and local attractions.
+Parc National de Zaghouan is a renowned national park located in Zaghouan, Tunisia, with coordinates (36.40291, 10.14292). It boasts a high rating of 4.5 and is open 24 hours a day. Visitors can expect to explore the park's diverse landscapes, including its natural springs, waterfalls, and lush greenery. The park is a haven for nature enthusiasts, hikers, and those seeking a peaceful retreat.
+The Zaghouan Aqueduct is a historic aqueduct located near the city of Mohammedia in Tunisia. Built in the 2nd century AD by the Romans, the aqueduct was used to transport water from the Zaghouan Mountains to the city of Carthage. The aqueduct is 132 kilometers long and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination and is also used for agricultural purposes.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2410,12 +3206,62 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in Zaghouan and looking for a great cafe, check out Cafe Bamaco located at C42M+F59 Cafe Bamaco, Zaghouan. This top-rated destination is perfect for cafe lovers and offers a range of coffee options to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: (36.402915, 10.142236). For more details, visit their website or call them at 50 173 892.</t>
+          <t>Nestled in the heart of Zaghouan, Cafe Bamaco is renowned as a Cafe, offering a warm and welcoming ambiance. Located at the coordinates (36.402915, 10.142236), this cafe proudly holds a 4.0-star rating based on customer reviews. Open from 7:00 AM to midnight, Cafe Bamaco caters to your cravings throughout most of the day.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Question: Where can you find a highly-rated cafe in Zaghouan that offers a variety of coffee choices and has received positive reviews?</t>
+          <t>Day Plan:
+Morning: Exploring Medina de Zaghouan (historical site)
+Mid-Morning: Trying local cuisine at BBQ Ain Zaghouane (restaurant)
+Midday: Visiting Zaghouan Aqueduct (historic aqueduct)
+Afternoon: Relaxing with a hike at Parc National de Zaghouan (natural park)
+Evening: Shopping at Natural Water Source (waterbed store)
+Night: Enjoying entertainment at "Salle des fêtes mariem" (discotheque)</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Classico is a highly-rated cafe located in Zaghouan, Tunisia. It operates 24 hours a day, making it a convenient spot for both locals and tourists alike. The cafe offers a cozy and welcoming ambiance, with friendly staff and a great selection of beverages and snacks. Its central location, just off Av. 14 janvier, makes it easily accessible. Cafe Classico is known for its delicious coffee, tasty pastries, and warm atmosphere, making it a popular destination for coffee lovers and those seeking a relaxing break.
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+Zaghouan Tabouna is a restaurant located in Zaghouan, Tunisia. It offers a wide variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at C42R+WF2 Zaghouan Tabouna, Rue Khaireddine, Zaghouan, Tunisia.
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, at coordinates (36.397737458615, 10.145884861582). With a rating of 4.6 based on 83 reviews, it's a popular destination for visitors interested in exploring the rich history of the region.
+The Parc National de Zaghouan is a protected area in Zaghouan, Tunisia. It is known for its stunning natural beauty, including forests, waterfalls, and caves. The park's unique landscape provides a habitat for a variety of flora and fauna, including endangered species.
+The park is open 24 hours a day and offers a variety of activities for visitors, including hiking, picnicking, and camping. There are also a number of historical and archaeological sites in the park, making it a great place to learn about Tunisia's rich history.
+Located at an altitude of 2,976 meters, the coordinates are 36.40291 N, 10.14292 E.
+The Zaghouan Aqueduct is a historic aqueduct located near the city of Mohammedia in Tunisia. Built in the 2nd century AD by the Romans, the aqueduct was used to transport water from the Zaghouan Mountains to the city of Carthage. The aqueduct is 132 kilometers long and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination and is also used for agricultural purposes.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2513,12 +3359,60 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in zaghouan, you should definitely check out Salon de the Theatro. This top-rated Cafe is located at C552+4XX Salon de the Theatro, Unnamed Road, Zaghouan. With a rating of 4.0, it's a must-visit spot for Cafe lovers. It's open during these hours: 05:30-22:30. To get there, use these GPS coordinates: 36.402915, 10.142236.</t>
+          <t>Salon de the Theatro, located in Zaghouan, Tunisia (coordinates: 36.402915, 10.142236), is a popular cafe offering a range of services and amenities. Open daily from 05:30 to 22:30, the cafe has received positive reviews for its offerings and convenient location.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Which top-rated Café with a rating of 4.0 is located at Salon de the Theatro in Zaghouan, offering a must-visit experience for Café enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina de Zaghouan.
+Mid-Morning: Visit the Zaghouan Aqueduct, a UNESCO World Heritage Site.
+Midday: Enjoy a traditional Tunisian lunch at TASSOU JUICE.
+Afternoon: Relax and enjoy scenic views at Parc National de Zaghouan.
+Evening: Experience the lively nightlife at "Salle des fêtes mariem", a top-rated discotheque.
+Night: Savor delicious pizzas at Bon'Gosto, a highly-rated pizzeria.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"next one" is a cafe located in Zaghouan, Tunisia. The cafe has a rating of 4.3 out of 5 stars on Google Maps and features a menu that includes a variety of coffee drinks, pastries, and sandwiches. "next one" is situated at coordinates (36.402915, 10.142236) and offers a warm and inviting atmosphere for customers to relax and enjoy their favorite beverages and snacks.
+Located in the heart of Zaghouan, Time Out' is a cozy and welcoming establishment that offers a delightful café experience. With its convenient location, it's a perfect spot for locals and visitors alike. Time Out's menu features a tempting selection of drinks and snacks, making it an ideal place to relax and unwind.
+TASSOU JUICE is a restaurant located in Zaghouan, Tunisia, close to the city center. It's open every day from 7:00 AM to midnight and offers a variety of food options.
+Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in the city of Zaghouan, Tunisia. It is a well-preserved walled city with narrow streets, traditional houses, and a variety of shops and restaurants. The medina is home to a number of historical monuments, including the Great Mosque of Zaghouan, which was built in the 9th century. The Medina de Zaghouan is a popular tourist destination, and is known for its beautiful architecture and lively atmosphere.
+Parc National de Zaghouan is a national park located in Zaghouan, Tunisia. It is an attraction for tourism with the latitude of 36.40291 and the longitude of 10.14292. It is open 24/7 and offers an unforgettable experience to its visitors.
+Zaghouan Aqueduct is a historical monument located in Zaghouan, Tunisia. It is an ancient Roman aqueduct that used to transport water from springs in the Zaghouan Mountains to the city of Carthage. The aqueduct is a UNESCO World Heritage Site. It is known for its arches and viaducts, which are still standing today. The aqueduct is a popular tourist destination, and it offers a glimpse into the history and culture of Tunisia.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2616,12 +3510,62 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a top-rated Cafe, check out Cafe zaytouna located at C45R+JWW Cafe zaytouna, Zaghouan. This must-visit spot offers a range of Cafe to choose from and has a rating of 5.0. It's open 24 hours a day, but closed on undefined. To get there, use these GPS coordinates: 36.402915, 10.142236.</t>
+          <t>This is the Café zaytouna, a cafe located in Zaghouan, Tunisia. It is likely close to location 10.142236° E, 36.402915° N.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Where in Zaghouan can you find a highly-rated Cafe with a 5.0-star rating and convenient 24-hour availability, even if it's closed on undefined?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina de Zaghouan for a glimpse of its architectural beauty and cultural heritage.
+Mid-Morning: Visit the Zaghouan Aqueduct, a UNESCO World Heritage Site, and admire its impressive arches and viaducts.
+Midday: Try local cuisine at Mechoui Zaghouan, a popular spot known for its grilled dishes.
+Afternoon: Enjoy the scenic beauty of the Parc National de Zaghouan, including forests, waterfalls, and caves.
+Evening: Immerse in the local nightlife at "Salle des fêtes mariem," a top-rated discotheque in Zaghouan.
+Night: Relax with a cup of tea at Salon de Thé Damas, a cozy teahouse with a friendly atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Grech Coffee is a cozy cafe located in the heart of Zaghouan, Tunisia. Open from 6am to midnight, it offers a warm and inviting atmosphere for locals and tourists alike. With a rating of 4.9 stars based on 11 reviews, Grech Coffee is highly regarded for its delicious coffee and friendly service. Coordinates: (36.404729191151, 10.140551547855)
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+Mechoui Zaghouan, located in Zaghouan, Tunisia, is a 4.2-rated restaurant with 17 reviews. It is a popular spot open 24 hours a day, offering a range of dishes to its customers. Its exact location is at coordinates (36.402915, 10.142236).
+Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, known for its well-preserved historic architecture and rich cultural heritage. Its prime location offers a unique blend of history, culture, and local attractions.
+The Parc National de Zaghouan is a protected area in Zaghouan, Tunisia. It is known for its stunning natural beauty, including forests, waterfalls, and caves. The park's unique landscape provides a habitat for a variety of flora and fauna, including endangered species.
+The park is open 24 hours a day and offers a variety of activities for visitors, including hiking, picnicking, and camping. There are also a number of historical and archaeological sites in the park, making it a great place to learn about Tunisia's rich history.
+Located at an altitude of 2,976 meters, the coordinates are 36.40291 N, 10.14292 E.
+Zaghouan Aqueduct is a historical monument located in Zaghouan, Tunisia. It is an ancient Roman aqueduct that used to transport water from springs in the Zaghouan Mountains to the city of Carthage. The aqueduct is a UNESCO World Heritage Site. It is known for its arches and viaducts, which are still standing today. The aqueduct is a popular tourist destination, and it offers a glimpse into the history and culture of Tunisia.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2723,12 +3667,62 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a top-rated cafe, check out Cafe Elmaazim located at 95X5+HF3 Cafe Elmaazim. This cafe has a rating of 5.0, making it a must-visit spot. It's open during these hours: 06:00-22:00, but closed on []. To get there, use these GPS coordinates: 36.402915, 10.142236.</t>
+          <t>**Cafe Elmaazim** is a cozy cafe located in Zaghouan. It offers a welcoming atmosphere, where guests can relax and enjoy their delectable coffee. The cafe is open from 06:00-22:00, making it the perfect spot to grab a morning pick-me-up or an evening treat. Conveniently situated at (36.402915, 10.142236), Cafe Elmaazim is easily accessible to locals and visitors alike.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Which top-rated cafe with a 5.0 rating is located in Zaghouan, and where can you find it?</t>
+          <t>Day Plan:
+Morning: Explore the ancient architecture of Medina de Zaghouan, a historical site with well-preserved buildings and cultural heritage.
+Mid-Morning: Visit the Zaghouan Aqueduct, an impressive Roman engineering marvel that transported water to Carthage over 1,800 years ago.
+Midday: Try local cuisine at TASSOU JUICE, a restaurant offering a variety of food options conveniently located near the city center.
+Afternoon: Relax and enjoy scenic views at Parc National de Zaghouan, a protected area with stunning natural beauty, forests, waterfalls, and hiking trails.
+Evening: Experience cultural immersion at Salle des fêtes mariem, a top-rated discotheque that offers an unforgettable entertainment experience with its lively atmosphere.
+Night: Indulge in a delicious meal at Bon'Gosto, a pizzeria rated 5.0 out of 5 by customers, known for its delectable pizzas.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sunset coffee is located in the city of Zaghouan, Tunisia, offering a unique and alluring experience to coffee enthusiasts. This cafe has garnered rave reviews, earning an impressive 5.0 rating from its patrons. The featured image provides a captivating glimpse of the cafe's cozy and inviting ambiance. Operating 24 hours a day, Sunset coffee is the perfect destination for those seeking a caffeine fix or a delectable treat any time of day.
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+TASSOU JUICE is a restaurant located in Zaghouan, Tunisia, close to the city center. It's open every day from 7:00 AM to midnight and offers a variety of food options.
+Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, known for its well-preserved historic architecture and rich cultural heritage. Its prime location offers a unique blend of history, culture, and local attractions.
+The Parc National de Zaghouan is a protected area in Zaghouan, Tunisia. It is known for its stunning natural beauty, including forests, waterfalls, and caves. The park's unique landscape provides a habitat for a variety of flora and fauna, including endangered species.
+The park is open 24 hours a day and offers a variety of activities for visitors, including hiking, picnicking, and camping. There are also a number of historical and archaeological sites in the park, making it a great place to learn about Tunisia's rich history.
+Located at an altitude of 2,976 meters, the coordinates are 36.40291 N, 10.14292 E.
+The Zaghouan Aqueduct, located near the city of Zaghouan in Tunisia, is an ancient aqueduct built by the Romans to supply water to the city of Carthage. Constructed between 122 and 132 AD, the aqueduct is approximately 128 km in length and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination, featuring well-preserved remains that offer a glimpse into the architectural prowess of the ancient Romans. Its coordinates are 36.686405012742, 10.150125779401.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2826,13 +3820,60 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you happen to be in the beautiful city of zaghouan and craving a cozy spot, make your way to Ola Marhaba Cafe. Located conveniently at C46P+FVV Ola Marhaba Cafe, Zaghouan, this top-rated cafe with a 4.0 rating is the perfect destination for cafe lovers. 
-To get to the cafe, simply use the GPS coordinates (36.402915, 10.142236) or visit their website for more details.</t>
+          <t>Ola Marhaba Café is a cafe located in Zaghouan, Tunisia. It's a great place to relax and enjoy a cup of coffee. The café has a friendly atmosphere and the staff is very welcoming. Ola Marhaba Café is open 7 days a week from 8am to 11pm.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>What is the name of the top-rated cafe located at C46P+FVV in Zaghouan, known for its cozy ambiance and 4.0 rating?</t>
+          <t>Day Plan:
+Morning: Exploring Parc National de Zaghouan
+Mid-Morning: Trying local cuisine at Bon'Gosto
+Midday: Visiting Zaghouan Aqueduct
+Afternoon: Relaxing with a coffee at La Fabrica
+Evening: Participating in the nightlife scene at Salle des Fêtes Mariem
+Night: Enjoying scenic views at Medina de Zaghouan</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+La Fabrica is a popular café located in Zaghouan, Tunisia. Known for its cozy ambiance and delectable offerings, La Fabrica has earned a 4.9 rating based on 24 reviews. It is renowned for its exquisite coffee and sweet treats. Customers rave about its 24/7 availability, making it an ideal spot for late-night cravings or early morning pick-me-ups.
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+Fatma kaak warka zaghouan is a restaurant located in Zaghouan (Tunisia), offering a variety of dishes. The restaurant has a 4.5 star rating on Google with 2 reviews. The restaurant is located at the following coordinates: (36.403004870365, 10.143450019014).
+Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, known for its well-preserved historic architecture and rich cultural heritage. Its prime location offers a unique blend of history, culture, and local attractions.
+Parc National de Zaghouan is a national park located in Zaghouan, Tunisia. It is an attraction for tourism with the latitude of 36.40291 and the longitude of 10.14292. It is open 24/7 and offers an unforgettable experience to its visitors.
+Zaghouan Aqueduct is a historical monument located in Zaghouan, Tunisia. It is an ancient Roman aqueduct that used to transport water from springs in the Zaghouan Mountains to the city of Carthage. The aqueduct is a UNESCO World Heritage Site. It is known for its arches and viaducts, which are still standing today. The aqueduct is a popular tourist destination, and it offers a glimpse into the history and culture of Tunisia.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2926,12 +3967,60 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in zaghouan, Kaak Warka should definitely be on your list. This cafe is located at 94WR+8GP Kaak Warka, and it's got a perfect 5.0 rating. They offer a range of categories including Cafe, and it's a must-visit for anyone in the area. Kaak Warka's phone number is not available, but you can visit their website at https://www.google.com/maps/place/Kaak+Warka/data=!4m7!3m6!1s0x12fd11fc36db1463:0x4ffaf6a9cd5261ab!8m2!3d36.3958401!4d10.1412528!16s%2Fg%2F11sc1qn6f3!19sChIJYxTbNvwR_RIRq2FSzan2-k8?authuser=0&amp;hl=fr&amp;rclk=1 for more details.</t>
+          <t>Kaak Warka is a cafe located at the coordinates (36.402915, 10.142236) in Zaghouan, Tunisia. With 5.0 of rating on Google Maps, it offers its services in the categories of cafes.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Where in Zaghouan can you find a highly-rated (5.0 stars) cafe called Kaak Warka that specializes in Cafe?</t>
+          <t>Day Plan:
+Morning: Explore the well-preserved historic architecture and rich cultural heritage at Medina de Zaghouan.
+Mid-Morning: Visit the UNESCO World Heritage Site, Zaghouan Aqueduct, and admire its ancient Roman arches and viaducts.
+Midday: Try local cuisine at BBQ Ain Zaghouane, a 5.0-rated restaurant specializing in grilled dishes.
+Afternoon: Enjoy scenic views at Parc National de Zaghouan, known for its unforgettable natural beauty.
+Evening: Participate in the vibrant nightlife scene at "Salle des fêtes mariem," a top-rated discotheque in Zaghouan.
+Night: Experience cultural immersion at DAR AIDA ZAGHOUAN, a charming Chambre d'hotes offering a glimpse into the local way of life.</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+La Fabrica is a popular café located in Zaghouan, Tunisia. Known for its cozy ambiance and delectable offerings, La Fabrica has earned a 4.9 rating based on 24 reviews. It is renowned for its exquisite coffee and sweet treats. Customers rave about its 24/7 availability, making it an ideal spot for late-night cravings or early morning pick-me-ups.
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+Fatma kaak warka zaghouan is a restaurant located in Zaghouan (Tunisia), offering a variety of dishes. The restaurant has a 4.5 star rating on Google with 2 reviews. The restaurant is located at the following coordinates: (36.403004870365, 10.143450019014).
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, known for its well-preserved historic architecture and rich cultural heritage. Its prime location offers a unique blend of history, culture, and local attractions.
+Parc National de Zaghouan is a national park located in Zaghouan, Tunisia. It is an attraction for tourism with the latitude of 36.40291 and the longitude of 10.14292. It is open 24/7 and offers an unforgettable experience to its visitors.
+Zaghouan Aqueduct is a historical monument located in Zaghouan, Tunisia. It is an ancient Roman aqueduct that used to transport water from springs in the Zaghouan Mountains to the city of Carthage. The aqueduct is a UNESCO World Heritage Site. It is known for its arches and viaducts, which are still standing today. The aqueduct is a popular tourist destination, and it offers a glimpse into the history and culture of Tunisia.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3033,14 +4122,62 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a great place to stay, check out Residence Seville - Ain Zaghouan located at Rue De Ribat. 
-This highly-rated hotel is perfect for those seeking a comfortable and convenient stay. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.86062870768, 10.282697200793.</t>
+          <t>Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Where in Zaghouan can you find the highly-rated Residence Seville - Ain Zaghouan, a top destination with a 4.5 rating?</t>
+          <t>Day Plan:
+Morning: Explore the historical Medina de Zaghouan, admiring its ancient architecture and bustling atmosphere.
+Mid-Morning: Indulge in a delightful breakfast at Black Tap, savoring the aroma of freshly brewed coffee and delectable pastries.
+Midday: Visit the Zaghouan Aqueduct, marveling at the engineering prowess of the Romans and its significance in ancient Carthage.
+Afternoon: Embark on a scenic hike through the Parc National de Zaghouan, immersing yourself in its breathtaking natural beauty and diverse flora and fauna.
+Evening: Relish a traditional Tunisian dinner at LA COMIDA, experiencing the authentic flavors and hospitality of the local cuisine.
+Night: Unwind and rejuvenate with a relaxing evening at DAR AIDA ZAGHOUAN, enjoying the ambiance of a traditional guesthouse and indulging in a nightcap at the bar.</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Black Tap is a trendy cafe located in Zaghouan, Tunisia. It offers a cozy ambiance and serves delicious coffee, snacks, and desserts. Located at (36.39970598805, 10.14909209247), it's easily accessible and has flexible hours, operating from 8 AM to midnight.
+Located in the heart of Zaghouan, Time Out' is a cozy and welcoming establishment that offers a delightful café experience. With its convenient location, it's a perfect spot for locals and visitors alike. Time Out's menu features a tempting selection of drinks and snacks, making it an ideal place to relax and unwind.
+LA COMIDA is a restaurant located in Cité el Bostene, Zaghouan, Tunisia. It is a great place to enjoy a delicious meal, with a rating of 4.3 out of 5 stars. You can contact LA COMIDA at 54 517 101.
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, at coordinates (36.397737458615, 10.145884861582). With a rating of 4.6 based on 83 reviews, it's a popular destination for visitors interested in exploring the rich history of the region.
+The Parc National de Zaghouan is a protected area in Zaghouan, Tunisia. It is known for its stunning natural beauty, including forests, waterfalls, and caves. The park's unique landscape provides a habitat for a variety of flora and fauna, including endangered species.
+The park is open 24 hours a day and offers a variety of activities for visitors, including hiking, picnicking, and camping. There are also a number of historical and archaeological sites in the park, making it a great place to learn about Tunisia's rich history.
+Located at an altitude of 2,976 meters, the coordinates are 36.40291 N, 10.14292 E.
+The Zaghouan Aqueduct is a historic aqueduct located near the city of Mohammedia in Tunisia. Built in the 2nd century AD by the Romans, the aqueduct was used to transport water from the Zaghouan Mountains to the city of Carthage. The aqueduct is 132 kilometers long and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination and is also used for agricultural purposes.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3142,12 +4279,60 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a Chambre d'hotes, check out DAR AIDA ZAGHOUAN located at DAR AIDA ZAGHOUAN, Rue Hedi Chaker, Zaghouan , prolongement, Rue Sidi Ali Azzouz, Zaghouan. This top-rated destination with a rating of 4.1 is perfect for Chambre d'hotes lovers. To get there, use these GPS coordinates: 36.396645061115, 10.144115124796. For more details, visit their website at https://www.google.com/maps/place/DAR+AIDA+ZAGHOUAN/data=!4m10!3m9!1s0x12fd11804df89afb:0x334ffd24c17f8ccc!5m2!4m1!1i2!8m2!3d36.396846!4d10.1442435!16s%2Fg%2F11hd1r_h25!19sChIJ-5r4TYAR_RIRzIx_wST9TzM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 379 449.</t>
+          <t>DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Chambre d'hotes with GPS coordinates 36.396645061115, 10.144115124796 and a website at https://www.google.com/maps/place/DAR+AIDA+ZAGHOUAN/data=!4m10!3m9!1s0x12fd11804df89afb:0x334ffd24c17f8ccc!5m2!4m1!1i2!8m2!3d36.396846!4d10.1442435!16s%2Fg%2F11hd1r_h25!19sChIJ-5r4TYAR_RIRzIx_wST9TzM?authuser=0&amp;hl=fr&amp;rclk=1 in Zaghouan?</t>
+          <t>Day Plan:
+Morning: Explore Medina de Zaghouan, an ancient historical site with remarkable ruins and architectural marvels.
+Mid-Morning: Indulge in the local culinary scene at Fatma kaak warka zaghouan, where you can savor authentic Tunisian dishes.
+Midday: Ascend the Montagne de Zaghouan Natural Reserve, offering breathtaking vistas and opportunities for hiking amidst its picturesque landscapes.
+Afternoon: Unwind at Parc National de Zaghouan, immersing yourself in its natural beauty and enjoying leisurely walks or picnics.
+Evening: Participate in the cultural ambiance at Salle des fêtes mariem, a renowned discotheque, and dance the night away with locals and fellow travelers.
+Night: Wind down at Residence Seville - Ain Zaghouan, a charming hotel with a relaxing atmosphere, and reflect on the day's adventures.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Zaghouan, Cafe Bamaco is renowned as a Cafe, offering a warm and welcoming ambiance. Located at the coordinates (36.402915, 10.142236), this cafe proudly holds a 4.0-star rating based on customer reviews. Open from 7:00 AM to midnight, Cafe Bamaco caters to your cravings throughout most of the day.
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+Fatma kaak warka zaghouan is a restaurant located in Zaghouan (Tunisia), offering a variety of dishes. The restaurant has a 4.5 star rating on Google with 2 reviews. The restaurant is located at the following coordinates: (36.403004870365, 10.143450019014).
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, at coordinates (36.397737458615, 10.145884861582). With a rating of 4.6 based on 83 reviews, it's a popular destination for visitors interested in exploring the rich history of the region.
+Parc National de Zaghouan is a national park located in Zaghouan, Tunisia. It is an attraction for tourism with the latitude of 36.40291 and the longitude of 10.14292. It is open 24/7 and offers an unforgettable experience to its visitors.
+The Zaghouan Aqueduct, located near the city of Zaghouan in Tunisia, is an ancient aqueduct built by the Romans to supply water to the city of Carthage. Constructed between 122 and 132 AD, the aqueduct is approximately 128 km in length and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination, featuring well-preserved remains that offer a glimpse into the architectural prowess of the ancient Romans. Its coordinates are 36.686405012742, 10.150125779401.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3249,12 +4434,69 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a top-rated hotel, check out Residence Seville - Ain Zaghouan located at Residence Seville - Ain Zaghouan, Rue De Ribat,. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.86062870768, 10.282697200793. For more details, visit their website at https://www.google.com/maps/place/R%C3%A9sidence+S%C3%A9ville+-+Ain+Zaghouan/data=!4m10!3m9!1s0x12e2b5890798a4bb:0x8e5afe290f370a38!5m2!4m1!1i2!8m2!3d36.8608622!4d10.2842497!16s%2Fg%2F11qpp8vhg5!19sChIJu6SYB4m14hIROAo3Dyn-Wo4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 678 391.</t>
+          <t>Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>If you happen to be exploring Ain Zaghouan and are keen on discovering the highly acclaimed Residence Seville, what are its GPS coordinates?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historic Medina de Zaghouan, admiring its preserved architecture and vibrant atmosphere.
+**Mid-Morning:**
+* Visit the Zaghouan Aqueduct, a UNESCO World Heritage Site, marveling at its ancient Roman engineering.
+**Midday:**
+* Try local cuisine at TASSOU JUICE, indulging in a variety of traditional Tunisian dishes.
+**Afternoon:**
+* Enjoy a scenic hike or picnic in Parc National de Zaghouan, immersing yourself in its serene beauty.
+**Evening:**
+* Relax with a traditional massage at DAR AIDA ZAGHOUAN, indulging in the tranquility of its garden setting.
+**Night:**
+* Experience the vibrant nightlife at "Salle des fêtes mariem," dancing the night away in this top-rated discotheque.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+L'art'doiz is a cafe in Zaghouan, Tunisia, located at (36.41836234334, 10.128480292988).
+It has a rating of 4.3 based on 28 reviews, and its main category is Cafe.
+Its workday timing is 06:00-00:00, and it is closed on [].
+The cafe's featured image is https://lh5.googleusercontent.com/p/AF1QipMIJtaQPBK5LMSG2IS5HgHRhw4YDcae1WsdVIp7=w408-h306-k-no
+Located in the heart of Zaghouan, Time Out' is a cozy and welcoming establishment that offers a delightful café experience. With its convenient location, it's a perfect spot for locals and visitors alike. Time Out's menu features a tempting selection of drinks and snacks, making it an ideal place to relax and unwind.
+TASSOU JUICE is a restaurant located in Zaghouan, Tunisia, close to the city center. It's open every day from 7:00 AM to midnight and offers a variety of food options.
+Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in the city of Zaghouan, Tunisia. It is a well-preserved walled city with narrow streets, traditional houses, and a variety of shops and restaurants. The medina is home to a number of historical monuments, including the Great Mosque of Zaghouan, which was built in the 9th century. The Medina de Zaghouan is a popular tourist destination, and is known for its beautiful architecture and lively atmosphere.
+Parc National de Zaghouan is a renowned national park located in Zaghouan, Tunisia, with coordinates (36.40291, 10.14292). It boasts a high rating of 4.5 and is open 24 hours a day. Visitors can expect to explore the park's diverse landscapes, including its natural springs, waterfalls, and lush greenery. The park is a haven for nature enthusiasts, hikers, and those seeking a peaceful retreat.
+Zaghouan Aqueduct is a historical monument located in Zaghouan, Tunisia. It is an ancient Roman aqueduct that used to transport water from springs in the Zaghouan Mountains to the city of Carthage. The aqueduct is a UNESCO World Heritage Site. It is known for its arches and viaducts, which are still standing today. The aqueduct is a popular tourist destination, and it offers a glimpse into the history and culture of Tunisia.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3352,15 +4594,62 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for something fun to do, check out Medina de Zaghouan located at 94XW+CVQ, Rue Sidi Ali Azzouz, Zaghouan. 
-This top-rated destination is perfect for Site historique lovers. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.397737458615, 10.145884861582. 
-For more details, visit their website at https://www.google.com/maps/place/M%C3%A9dina+de+Zaghouan/data=!4m7!3m6!1s0x12fd11849ea6e001:0x28e8b94b423e7a60!8m2!3d36.3985857!4d10.1472403!16s%2Fg%2F11qpwk4553!19sChIJAeCmnoQR_RIRYHo-Qku56Cg?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Medina de Zaghouan is a historical site located in the city of Zaghouan, Tunisia. It is a well-preserved walled city with narrow streets, traditional houses, and a variety of shops and restaurants. The medina is home to a number of historical monuments, including the Great Mosque of Zaghouan, which was built in the 9th century. The Medina de Zaghouan is a popular tourist destination, and is known for its beautiful architecture and lively atmosphere.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where is the highly-rated Site historique destination in Zaghouan that has a 4.6 rating and GPS coordinates of 36.397737458615, 10.145884861582?</t>
+          <t>Day Plan:
+Morning: Explore the well-preserved Medina de Zaghouan, known for its traditional houses, shops, and historical monuments.
+Mid-Morning: Visit the nearby Parc National de Zaghouan to admire its stunning natural beauty and enjoy a refreshing hike.
+Midday: Have lunch at the highly-rated pizzeria Bon'Gosto.
+Afternoon: Immerse yourself in culture at the Musée de Zaghouan, which showcases the region's rich history and heritage.
+Evening: Indulge in delicious grilled dishes at the 5.0-rated restaurant BBQ Ain Zaghouane.
+Night: Head to Salle des fêtes mariem, a discotheque with a 4.3-star rating, for an unforgettable nightlife experience.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Salon de the Theatro, located in Zaghouan, Tunisia (coordinates: 36.402915, 10.142236), is a popular cafe offering a range of services and amenities. Open daily from 05:30 to 22:30, the cafe has received positive reviews for its offerings and convenient location.
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+Fatma kaak warka zaghouan is a restaurant located in Zaghouan (Tunisia), offering a variety of dishes. The restaurant has a 4.5 star rating on Google with 2 reviews. The restaurant is located at the following coordinates: (36.403004870365, 10.143450019014).
+Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in the city of Zaghouan, Tunisia. It is a well-preserved walled city with narrow streets, traditional houses, and a variety of shops and restaurants. The medina is home to a number of historical monuments, including the Great Mosque of Zaghouan, which was built in the 9th century. The Medina de Zaghouan is a popular tourist destination, and is known for its beautiful architecture and lively atmosphere.
+The Parc National de Zaghouan is a protected area in Zaghouan, Tunisia. It is known for its stunning natural beauty, including forests, waterfalls, and caves. The park's unique landscape provides a habitat for a variety of flora and fauna, including endangered species.
+The park is open 24 hours a day and offers a variety of activities for visitors, including hiking, picnicking, and camping. There are also a number of historical and archaeological sites in the park, making it a great place to learn about Tunisia's rich history.
+Located at an altitude of 2,976 meters, the coordinates are 36.40291 N, 10.14292 E.
+The Zaghouan Aqueduct, located near the city of Zaghouan in Tunisia, is an ancient aqueduct built by the Romans to supply water to the city of Carthage. Constructed between 122 and 132 AD, the aqueduct is approximately 128 km in length and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination, featuring well-preserved remains that offer a glimpse into the architectural prowess of the ancient Romans. Its coordinates are 36.686405012742, 10.150125779401.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3462,12 +4751,62 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>Immerse yourself in nature's wonders at Parc National de Zaghouan, located in the captivating city of zaghouan. This top-rated destination boasts a rating of 4.5 and is open 24 hours a day. As a renowned Parc national, it offers an array of categories such as Attraction touristique to cater to all preferences. To get there, set your GPS to these coordinates: (36.40291, 10.14292). For further details, visit their website at https://www.google.com/maps/place/Parc+National+de+Zaghouan/data=!4m7!3m6!1s0x12fd1052d8bd9a63:0xf542793458d7d05e!8m2!3d36.3864136!4d10.1245203!16s%2Fg%2F1yfdpfjx0!19sChIJY5q92FIQ_RIRXtDXWDR5QvU?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>The Parc National de Zaghouan is a protected area in Zaghouan, Tunisia. It is known for its stunning natural beauty, including forests, waterfalls, and caves. The park's unique landscape provides a habitat for a variety of flora and fauna, including endangered species.
+The park is open 24 hours a day and offers a variety of activities for visitors, including hiking, picnicking, and camping. There are also a number of historical and archaeological sites in the park, making it a great place to learn about Tunisia's rich history.
+Located at an altitude of 2,976 meters, the coordinates are 36.40291 N, 10.14292 E.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Where in nature's embrace can you revel in the tranquility of a renowned Parc national in Zaghouan, offering a 4.5-star rating and an alluring setting?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina de Zaghouan, known for its preserved architecture and cultural heritage.
+Mid-Morning: Visit the Zaghouan Aqueduct, a UNESCO World Heritage Site and an ancient Roman engineering marvel.
+Midday: Try local cuisine at BBQ Ain Zaghouane, a 5.0-rated restaurant specializing in grilled dishes.
+Afternoon: Enjoy a serene walk through the Montagne de Zaghouan, a beautiful natural reserve with stunning scenery, forests, and wildlife.
+Evening: Head to "next one" cafe for a relaxing ambiance and enjoy a variety of coffee drinks and pastries.
+Night: Experience the vibrant nightlife at "Salle des fêtes mariem," a top-rated discotheque in Zaghouan.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"next one" is a cafe located in Zaghouan, Tunisia. The cafe has a rating of 4.3 out of 5 stars on Google Maps and features a menu that includes a variety of coffee drinks, pastries, and sandwiches. "next one" is situated at coordinates (36.402915, 10.142236) and offers a warm and inviting atmosphere for customers to relax and enjoy their favorite beverages and snacks.
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+Mechoui Zaghouan, located in Zaghouan, Tunisia, is a 4.2-rated restaurant with 17 reviews. It is a popular spot open 24 hours a day, offering a range of dishes to its customers. Its exact location is at coordinates (36.402915, 10.142236).
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, known for its well-preserved historic architecture and rich cultural heritage. Its prime location offers a unique blend of history, culture, and local attractions.
+Parc National de Zaghouan is a national park located in Zaghouan, Tunisia. It is an attraction for tourism with the latitude of 36.40291 and the longitude of 10.14292. It is open 24/7 and offers an unforgettable experience to its visitors.
+Zaghouan Aqueduct is a historical monument located in Zaghouan, Tunisia. It is an ancient Roman aqueduct that used to transport water from springs in the Zaghouan Mountains to the city of Carthage. The aqueduct is a UNESCO World Heritage Site. It is known for its arches and viaducts, which are still standing today. The aqueduct is a popular tourist destination, and it offers a glimpse into the history and culture of Tunisia.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3565,16 +4904,60 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a historical landmark, visit Medina de Zaghouan located at 94XW+CVQ Medina de Zaghouan, Rue Sidi Ali Azzouz, Zaghouan. 
-This top-rated destination is perfect for culture and history enthusiasts. 
-With a rating of 4.6, it's a must-visit spot for those interested in the history of zaghouan.
-To get there, use these GPS coordinates: 36.397737458615, 10.145884861582.
-For more details, visit their website or call them at the given phone number.</t>
+          <t>Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, known for its well-preserved historic architecture and rich cultural heritage. Its prime location offers a unique blend of history, culture, and local attractions.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated historical landmark perfect for culture and history enthusiasts in Zaghouan?</t>
+          <t>Day Plan:
+Morning: Exploring Medina de Zaghouan
+Mid-Morning: Trying local cuisine at Bon'Gosto
+Midday: Visiting Zaghouan Aqueduct
+Afternoon: Enjoying scenic views at Parc National de Zaghouan
+Evening: Participating in an event or activity at Salle des fêtes mariem
+Night: Relaxing with a drink at Cafe Classico</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Classico is a highly-rated cafe located in Zaghouan, Tunisia. It operates 24 hours a day, making it a convenient spot for both locals and tourists alike. The cafe offers a cozy and welcoming ambiance, with friendly staff and a great selection of beverages and snacks. Its central location, just off Av. 14 janvier, makes it easily accessible. Cafe Classico is known for its delicious coffee, tasty pastries, and warm atmosphere, making it a popular destination for coffee lovers and those seeking a relaxing break.
+Located in the heart of Zaghouan, Time Out' is a cozy and welcoming establishment that offers a delightful café experience. With its convenient location, it's a perfect spot for locals and visitors alike. Time Out's menu features a tempting selection of drinks and snacks, making it an ideal place to relax and unwind.
+TASSOU JUICE is a restaurant located in Zaghouan, Tunisia, close to the city center. It's open every day from 7:00 AM to midnight and offers a variety of food options.
+Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in the city of Zaghouan, Tunisia. It is a well-preserved walled city with narrow streets, traditional houses, and a variety of shops and restaurants. The medina is home to a number of historical monuments, including the Great Mosque of Zaghouan, which was built in the 9th century. The Medina de Zaghouan is a popular tourist destination, and is known for its beautiful architecture and lively atmosphere.
+Parc National de Zaghouan is a national park located in Zaghouan, Tunisia. It is an attraction for tourism with the latitude of 36.40291 and the longitude of 10.14292. It is open 24/7 and offers an unforgettable experience to its visitors.
+The Zaghouan Aqueduct is a historic aqueduct located near the city of Mohammedia in Tunisia. Built in the 2nd century AD by the Romans, the aqueduct was used to transport water from the Zaghouan Mountains to the city of Carthage. The aqueduct is 132 kilometers long and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination and is also used for agricultural purposes.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3676,15 +5059,62 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for something fun to do, check out Parc National de Zaghouan located at 94PF+HR6 Parc National de Zaghouan, Zaghouan. 
-This top-rated destination is perfect for Parc national lovers and offers a range of Parc national and Attraction touristique to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open 24h/24, but closed on []. To get there, use these GPS coordinates: 36.40291, 10.14292. For more details, visit their website 
-at https://www.google.com/maps/place/Parc+National+de+Zaghouan/data=!4m7!3m6!1s0x12fd1052d8bd9a63:0xf542793458d7d05e!8m2!3d36.3864136!4d10.1245203!16s%2Fg%2F1yfdpfjx0!19sChIJY5q92FIQ_RIRXtDXWDR5QvU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Parc National de Zaghouan is a renowned national park located in Zaghouan, Tunisia, with coordinates (36.40291, 10.14292). It boasts a high rating of 4.5 and is open 24 hours a day. Visitors can expect to explore the park's diverse landscapes, including its natural springs, waterfalls, and lush greenery. The park is a haven for nature enthusiasts, hikers, and those seeking a peaceful retreat.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Where in Zaghouan can you find a top-rated destination with a 4.5 rating, perfect for Parc national enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the stunning Parc National de Zaghouan, known for its natural beauty, including forests, waterfalls, and caves.
+Mid-Morning: Visit Zaghouan Aqueduct, a UNESCO World Heritage Site showcasing ancient Roman architecture.
+Midday: Savor local cuisine at BBQ Ain Zaghouane, a 5.0-rated restaurant specializing in grilled dishes.
+Afternoon: Relax and unwind at the luxurious Residence Seville - Ain Zaghouan, a 4.5-star hotel with a restaurant, bar, and garden.
+Evening: Experience the vibrant nightlife at "Salle des fêtes mariem," a top-rated discotheque offering a memorable entertainment experience.
+Night: End the day with a delicious crepe at Choco Crepe, a cozy and welcoming family restaurant.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Salon de the Theatro, located in Zaghouan, Tunisia (coordinates: 36.402915, 10.142236), is a popular cafe offering a range of services and amenities. Open daily from 05:30 to 22:30, the cafe has received positive reviews for its offerings and convenient location.
+Located in the heart of Zaghouan, Time Out' is a cozy and welcoming establishment that offers a delightful café experience. With its convenient location, it's a perfect spot for locals and visitors alike. Time Out's menu features a tempting selection of drinks and snacks, making it an ideal place to relax and unwind.
+Fatma kaak warka zaghouan is a restaurant located in Zaghouan (Tunisia), offering a variety of dishes. The restaurant has a 4.5 star rating on Google with 2 reviews. The restaurant is located at the following coordinates: (36.403004870365, 10.143450019014).
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, at coordinates (36.397737458615, 10.145884861582). With a rating of 4.6 based on 83 reviews, it's a popular destination for visitors interested in exploring the rich history of the region.
+The Parc National de Zaghouan is a protected area in Zaghouan, Tunisia. It is known for its stunning natural beauty, including forests, waterfalls, and caves. The park's unique landscape provides a habitat for a variety of flora and fauna, including endangered species.
+The park is open 24 hours a day and offers a variety of activities for visitors, including hiking, picnicking, and camping. There are also a number of historical and archaeological sites in the park, making it a great place to learn about Tunisia's rich history.
+Located at an altitude of 2,976 meters, the coordinates are 36.40291 N, 10.14292 E.
+Zaghouan Aqueduct is a historical monument located in Zaghouan, Tunisia. It is an ancient Roman aqueduct that used to transport water from springs in the Zaghouan Mountains to the city of Carthage. The aqueduct is a UNESCO World Heritage Site. It is known for its arches and viaducts, which are still standing today. The aqueduct is a popular tourist destination, and it offers a glimpse into the history and culture of Tunisia.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3782,14 +5212,60 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for something fun to do, check out Zaghouan Aqueduct located at M42M+47P Zaghouan Aqueduct, Unnamed Road, Mohammedia. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours:  but closed on . To get there, use these GPS coordinates: 36.686405012742, 10.150125779401. For more details, visit their website at  or call them at .</t>
+          <t>Zaghouan Aqueduct is a historical monument located in Zaghouan, Tunisia. It is an ancient Roman aqueduct that used to transport water from springs in the Zaghouan Mountains to the city of Carthage. The aqueduct is a UNESCO World Heritage Site. It is known for its arches and viaducts, which are still standing today. The aqueduct is a popular tourist destination, and it offers a glimpse into the history and culture of Tunisia.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>What must-visit destination in Zaghouan features a range of Musee options, boasting a high rating and perfect for Musee enthusiasts?</t>
+          <t>**Day Plan:**
+**Morning:** Explore Medina de Zaghouan, a historical site showcasing the city's rich heritage and architecture.
+**Mid-Morning:** Visit the Parc National de Zaghouan, renowned for its natural springs, waterfalls, and diverse landscapes. Enjoy a scenic hike or a peaceful retreat in nature.
+**Midday:** Savor a traditional Tunisian lunch at the highly-rated restaurant LA COMIDA, known for its delicious local cuisine.
+**Afternoon:** Participate in a guided tour of the ancient Zaghouan Aqueduct, a testament to Roman engineering and a popular tourist destination.
+**Evening:** Engage in cultural immersion at the DAR AIDA ZAGHOUAN, a charming guesthouse offering a restaurant, bar, and garden for relaxation.
+**Night:** Experience the vibrant nightlife scene at "Salle des fêtes mariem," a top-rated discotheque offering an unforgettable entertainment experience.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Espace de Loisirs La Grotte is a cafe located in Zaghouan, Tunisia. It has a rating of 4.4 out of 5 stars and is open from 7 am to midnight. The cafe offers a variety of food and drinks, and is a popular spot for locals and tourists alike. The cafe is located at 36.402915, 10.142236.
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+LA COMIDA is a restaurant located in Cité el Bostene, Zaghouan, Tunisia. It is a great place to enjoy a delicious meal, with a rating of 4.3 out of 5 stars. You can contact LA COMIDA at 54 517 101.
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, known for its well-preserved historic architecture and rich cultural heritage. Its prime location offers a unique blend of history, culture, and local attractions.
+Parc National de Zaghouan is a renowned national park located in Zaghouan, Tunisia, with coordinates (36.40291, 10.14292). It boasts a high rating of 4.5 and is open 24 hours a day. Visitors can expect to explore the park's diverse landscapes, including its natural springs, waterfalls, and lush greenery. The park is a haven for nature enthusiasts, hikers, and those seeking a peaceful retreat.
+The Zaghouan Aqueduct, located near the city of Zaghouan in Tunisia, is an ancient aqueduct built by the Romans to supply water to the city of Carthage. Constructed between 122 and 132 AD, the aqueduct is approximately 128 km in length and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination, featuring well-preserved remains that offer a glimpse into the architectural prowess of the ancient Romans. Its coordinates are 36.686405012742, 10.150125779401.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3887,13 +5363,60 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for something fun to do, check out Zaghouan Aqueduct located at M42M+47P Zaghouan Aqueduct, Unnamed Road, Mohammedia. 
-This top-rated destination is a must-visit spot for Musee lovers. With a rating of 4.5, it's a great place to explore. To get there, use these GPS coordinates: 36.686405012742, 10.150125779401. For more details, visit their website at https://www.google.com/maps/place/Zaghouan+Aqueduct/data=!4m7!3m6!1s0x12fd3baccdf37d13:0xeb05a695157a2626!8m2!3d36.6503463!4d10.1331941!16s%2Fg%2F11f3n6kpgp!19sChIJE33zzaw7_RIRJiZ6FZWmBes?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>The Zaghouan Aqueduct, located near the city of Zaghouan in Tunisia, is an ancient aqueduct built by the Romans to supply water to the city of Carthage. Constructed between 122 and 132 AD, the aqueduct is approximately 128 km in length and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination, featuring well-preserved remains that offer a glimpse into the architectural prowess of the ancient Romans. Its coordinates are 36.686405012742, 10.150125779401.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>What top-rated destination, known for attracting Musee enthusiasts, can be found in Zaghouan near the coordinates 36.686405012742, 10.150125779401?</t>
+          <t>Day Plan:
+Morning: Explore the well-preserved Medina de Zaghouan, with its narrow streets and historic architecture.
+Mid-Morning: Visit the Parc National de Zaghouan, renowned for its natural beauty, including springs, waterfalls, and lush greenery.
+Midday: Try local cuisine at Bon'Gosto, a highly-rated pizzeria known for its delicious offerings.
+Afternoon: Relax and soak in the scenic views at the Montagne de Zaghouan, a natural reserve with breathtaking landscapes.
+Evening: Participate in the vibrant nightlife at "Salle des fêtes mariem," a top-rated discotheque in Zaghouan.
+Night: Enjoy a soothing and relaxing experience with a traditional Hammam (steam bath) at a local spa or hotel.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe gypsy is a cafe located in Zaghouan, Tunisia. It offers a variety of food and drinks, and has a rating of 4.3 on Google. The cafe is located at the coordinates (36.402915, 10.142236).
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+Fatma kaak warka zaghouan is a restaurant located in Zaghouan (Tunisia), offering a variety of dishes. The restaurant has a 4.5 star rating on Google with 2 reviews. The restaurant is located at the following coordinates: (36.403004870365, 10.143450019014).
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in the city of Zaghouan, Tunisia. It is a well-preserved walled city with narrow streets, traditional houses, and a variety of shops and restaurants. The medina is home to a number of historical monuments, including the Great Mosque of Zaghouan, which was built in the 9th century. The Medina de Zaghouan is a popular tourist destination, and is known for its beautiful architecture and lively atmosphere.
+Parc National de Zaghouan is a renowned national park located in Zaghouan, Tunisia, with coordinates (36.40291, 10.14292). It boasts a high rating of 4.5 and is open 24 hours a day. Visitors can expect to explore the park's diverse landscapes, including its natural springs, waterfalls, and lush greenery. The park is a haven for nature enthusiasts, hikers, and those seeking a peaceful retreat.
+The Zaghouan Aqueduct, located near the city of Zaghouan in Tunisia, is an ancient aqueduct built by the Romans to supply water to the city of Carthage. Constructed between 122 and 132 AD, the aqueduct is approximately 128 km in length and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination, featuring well-preserved remains that offer a glimpse into the architectural prowess of the ancient Romans. Its coordinates are 36.686405012742, 10.150125779401.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3991,14 +5514,61 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in Zaghouan and looking for a cultural experience, head over to Zaghouan Aqueduct located at M42M+47P Unnamed Road, Mohammedia. 
-This top-rated museum is perfect for history buffs and offers a range of exhibits to explore. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.686405012742, 10.150125779401. For more details, visit their website at https://www.google.com/maps/place/Zaghouan+Aqueduct/data=!4m7!3m6!1s0x12fd3baccdf37d13:0xeb05a695157a2626!8m2!3d36.6503463!4d10.1331941!16s%2Fg%2F11f3n6kpgp!19sChIJE33zzaw7_RIRJiZ6FZWmBes?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Zaghouan Aqueduct is a historic aqueduct located near the city of Mohammedia in Tunisia. Built in the 2nd century AD by the Romans, the aqueduct was used to transport water from the Zaghouan Mountains to the city of Carthage. The aqueduct is 132 kilometers long and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination and is also used for agricultural purposes.</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cultural experience with historical exhibits in Zaghouan?</t>
+          <t>Day Plan:
+Morning: Explore the historic Zaghouan Aqueduct, built by the Romans in the 2nd century AD.
+Mid-Morning: Try local cuisine at Cheesy food restaurant, known for its highly-rated grilled dishes.
+Midday: Visit the beautiful Montagne de Zaghouan nature reserve, offering stunning scenery and opportunities for hiking and picnicking.
+Afternoon: Enjoy the vibrant atmosphere of the Medina de Zaghouan, a well-preserved walled city showcasing traditional architecture, shops, and restaurants.
+Evening: Participate in the lively nightlife at "Salle des fêtes mariem", a top-rated discotheque offering an unforgettable entertainment experience.
+Night: Relax at DAR AIDA ZAGHOUAN, a charming guesthouse with amenities like a restaurant, bar, and garden.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Café Errahba**
+Nestled in the vibrant city of Zaghouan, Café Errahba is a cozy and welcoming destination for coffee lovers and casual diners alike. Located at coordinates (36.402915, 10.142236), this popular café serves up delectable treats and a warm ambiance.
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+Cheesy food is a restaurant located in Zaghouan, Tunisia (36.38127755, 10.18536985). Unfortunately, there is no detailed description or information available about this place. However, it is rated 4.6 out of 5 based on 5 reviews, suggesting that it is a well-regarded establishment in the area.
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in the city of Zaghouan, Tunisia. It is a well-preserved walled city with narrow streets, traditional houses, and a variety of shops and restaurants. The medina is home to a number of historical monuments, including the Great Mosque of Zaghouan, which was built in the 9th century. The Medina de Zaghouan is a popular tourist destination, and is known for its beautiful architecture and lively atmosphere.
+Parc National de Zaghouan is a national park located in Zaghouan, Tunisia. It is an attraction for tourism with the latitude of 36.40291 and the longitude of 10.14292. It is open 24/7 and offers an unforgettable experience to its visitors.
+The Zaghouan Aqueduct is a historic aqueduct located near the city of Mohammedia in Tunisia. Built in the 2nd century AD by the Romans, the aqueduct was used to transport water from the Zaghouan Mountains to the city of Carthage. The aqueduct is 132 kilometers long and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination and is also used for agricultural purposes.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4096,13 +5666,62 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in Zaghouan and looking for a top-rated historical site, check out Medina de Zaghouan located at 94XW+CVQ Medina de Zaghouan, Rue Sidi Ali Azzouz, Zaghouan. With a rating of 4.6, this must-visit destination offers a range of categories to choose from, including:
-- Historical Site</t>
+          <t>Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, at coordinates (36.397737458615, 10.145884861582). With a rating of 4.6 based on 83 reviews, it's a popular destination for visitors interested in exploring the rich history of the region.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>Where is the highly-rated historical site in Zaghouan, and what sets it apart?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Zaghouan Aqueduct, a UNESCO World Heritage Site. Marvel at its impressive arches and viaducts.
+Mid-Morning: Visit Medina de Zaghouan, a historical site with narrow streets, traditional shops, and a vibrant atmosphere.
+Midday: Relish the local cuisine at BBQ Ain Zaghouane, a top-rated restaurant serving delectable grilled dishes.
+Afternoon: Immerse yourself in nature at Parc National de Zaghouan. Hike through its scenic forests, admire waterfalls, and explore caves.
+Evening: Unwind at the cozy Choco Crepe, a family restaurant known for its warm ambiance and delicious crepes.
+Night: Experience the nightlife at "Salle des fêtes mariem," a discotheque with a stellar reputation for entertainment.</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Kaak Warka is a cafe located at the coordinates (36.402915, 10.142236) in Zaghouan, Tunisia. With 5.0 of rating on Google Maps, it offers its services in the categories of cafes.
+Located in the heart of Zaghouan, Time Out' is a cozy and welcoming establishment that offers a delightful café experience. With its convenient location, it's a perfect spot for locals and visitors alike. Time Out's menu features a tempting selection of drinks and snacks, making it an ideal place to relax and unwind.
+Cheesy food is a restaurant located in Zaghouan, Tunisia (36.38127755, 10.18536985). Unfortunately, there is no detailed description or information available about this place. However, it is rated 4.6 out of 5 based on 5 reviews, suggesting that it is a well-regarded establishment in the area.
+Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, at coordinates (36.397737458615, 10.145884861582). With a rating of 4.6 based on 83 reviews, it's a popular destination for visitors interested in exploring the rich history of the region.
+The Parc National de Zaghouan is a protected area in Zaghouan, Tunisia. It is known for its stunning natural beauty, including forests, waterfalls, and caves. The park's unique landscape provides a habitat for a variety of flora and fauna, including endangered species.
+The park is open 24 hours a day and offers a variety of activities for visitors, including hiking, picnicking, and camping. There are also a number of historical and archaeological sites in the park, making it a great place to learn about Tunisia's rich history.
+Located at an altitude of 2,976 meters, the coordinates are 36.40291 N, 10.14292 E.
+Zaghouan Aqueduct is a historical monument located in Zaghouan, Tunisia. It is an ancient Roman aqueduct that used to transport water from springs in the Zaghouan Mountains to the city of Carthage. The aqueduct is a UNESCO World Heritage Site. It is known for its arches and viaducts, which are still standing today. The aqueduct is a popular tourist destination, and it offers a glimpse into the history and culture of Tunisia.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4204,15 +5823,65 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in Zaghouan and looking for a fun and memorable experience, don't miss Parc National de Zaghouan located at 94PF+HR6. 
-This top-rated destination is perfect for nature enthusiasts and offers a range of activities to indulge in. 
-With a rating of 4.5, it's a must-visit spot. It's open 24 hours a day, making it accessible at any time. 
-To get there, use these GPS coordinates: 36.40291, 10.14292. For more details, visit their website at https://www.google.com/maps/place/Parc+National+de+Zaghouan/data=!4m7!3m6!1s0x12fd1052d8bd9a63:0xf542793458d7d05e!8m2!3d36.3864136!4d10.1245203!16s%2Fg%2F1yfdpfjx0!19sChIJY5q92FIQ_RIRXtDXWDR5QvU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Parc National de Zaghouan is a national park located in Zaghouan, Tunisia. It is an attraction for tourism with the latitude of 36.40291 and the longitude of 10.14292. It is open 24/7 and offers an unforgettable experience to its visitors.</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Where can you experience the natural beauty of Zaghouan and enjoy various activities at a top-rated destination open 24/7?</t>
+          <t>Day Plan:
+Morning: Explore the Medina de Zaghouan, a historical site with impressive architecture and rich history.
+Mid-Morning: Visit the Parc National de Zaghouan, a protected area with stunning natural beauty and diverse flora and fauna. Enjoy hiking or picnicking amidst the serene surroundings.
+Midday: Indulge in local cuisine at the highly-rated Zaghouan Tabouna restaurant, known for its authentic Tunisian flavors.
+Afternoon: Discover the Zaghouan Aqueduct, an impressive historic structure that demonstrates Roman engineering prowess. Take a guided tour to learn about its history and significance.
+Evening: Experience the vibrant nightlife at "Salle des fêtes mariem," a top-rated discotheque offering an unforgettable entertainment experience.
+Night: Relax at your accommodation or enjoy the serene atmosphere at the DAR AIDA ZAGHOUAN guesthouse.</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+L'art'doiz is a cafe in Zaghouan, Tunisia, located at (36.41836234334, 10.128480292988).
+It has a rating of 4.3 based on 28 reviews, and its main category is Cafe.
+Its workday timing is 06:00-00:00, and it is closed on [].
+The cafe's featured image is https://lh5.googleusercontent.com/p/AF1QipMIJtaQPBK5LMSG2IS5HgHRhw4YDcae1WsdVIp7=w408-h306-k-no
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+Zaghouan Tabouna is a restaurant located in Zaghouan, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine. The restaurant is located at C42R+WF2 Zaghouan Tabouna, Rue Khaireddine, Zaghouan, and its coordinates are (36.402680864697, 10.141498690923). The restaurant is open from 08:30-22:00, and its average rating is 4.6 stars.
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, at coordinates (36.397737458615, 10.145884861582). With a rating of 4.6 based on 83 reviews, it's a popular destination for visitors interested in exploring the rich history of the region.
+The Parc National de Zaghouan is a protected area in Zaghouan, Tunisia. It is known for its stunning natural beauty, including forests, waterfalls, and caves. The park's unique landscape provides a habitat for a variety of flora and fauna, including endangered species.
+The park is open 24 hours a day and offers a variety of activities for visitors, including hiking, picnicking, and camping. There are also a number of historical and archaeological sites in the park, making it a great place to learn about Tunisia's rich history.
+Located at an altitude of 2,976 meters, the coordinates are 36.40291 N, 10.14292 E.
+The Zaghouan Aqueduct is a historic aqueduct located near the city of Mohammedia in Tunisia. Built in the 2nd century AD by the Romans, the aqueduct was used to transport water from the Zaghouan Mountains to the city of Carthage. The aqueduct is 132 kilometers long and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination and is also used for agricultural purposes.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4314,12 +5983,62 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a place to buy waterbeds, check out Natural Water Source located at 94XW+CW6 Natural Water Source, Zaghouan. This highly-rated store is perfect for waterbed lovers and offers a range of waterbeds to choose from. With a rating of 3.7, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 36.402915, 10.142236.</t>
+          <t>Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Where in Zaghouan can you find a highly-rated store with a wide selection of waterbeds available 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Exploring the Medina de Zaghouan, a historical site with well-preserved architecture
+Mid-Morning: Trying local cuisine at BBQ Ain Zaghouane, a highly-rated restaurant offering grilled dishes
+Midday: Visiting the Zaghouan Aqueduct, a historic Roman aqueduct and popular tourist destination
+Afternoon: Enjoying a scenic picnic at Parc National de Zaghouan, a protected area with forests, waterfalls, and caves
+Evening: Participating in a dance party at "Salle des fêtes mariem," a top-rated discotheque known for its entertainment experience
+Night: Relaxing with a cup of coffee at Grech Coffee, a cozy cafe with a highly-rated ambiance and variety of beverages</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Grech Coffee is a highly-rated (4.9 stars) cafe located in Zaghouan, Tunisia. It offers a cozy ambiance and serves a variety of coffee and other beverages, making it a popular spot for locals and tourists alike. The cafe is conveniently situated near the city center and is easily accessible.
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+Mechoui Zaghouan, located in Zaghouan, Tunisia, is a 4.2-rated restaurant with 17 reviews. It is a popular spot open 24 hours a day, offering a range of dishes to its customers. Its exact location is at coordinates (36.402915, 10.142236).
+Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, known for its well-preserved historic architecture and rich cultural heritage. Its prime location offers a unique blend of history, culture, and local attractions.
+The Parc National de Zaghouan is a protected area in Zaghouan, Tunisia. It is known for its stunning natural beauty, including forests, waterfalls, and caves. The park's unique landscape provides a habitat for a variety of flora and fauna, including endangered species.
+The park is open 24 hours a day and offers a variety of activities for visitors, including hiking, picnicking, and camping. There are also a number of historical and archaeological sites in the park, making it a great place to learn about Tunisia's rich history.
+Located at an altitude of 2,976 meters, the coordinates are 36.40291 N, 10.14292 E.
+The Zaghouan Aqueduct is a historic aqueduct located near the city of Mohammedia in Tunisia. Built in the 2nd century AD by the Romans, the aqueduct was used to transport water from the Zaghouan Mountains to the city of Carthage. The aqueduct is 132 kilometers long and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination and is also used for agricultural purposes.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4417,14 +6136,63 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for something fun to do, check out Mongtagne de Zaghouan located at 94QQ+JH8 Mongtagne de Zaghouan, Unnamed Road, Zaghouan. 
-This top-rated destination is perfect for Reserve naturelle lovers and offers a range of Reserve naturelle to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.44247, 10.17127.  For more details, visit their website at nan or call them at nan.</t>
+          <t>The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination in Zaghouan that offers a range of Reserve naturelle options, has a 5.0 rating, and is perfect for Reserve naturelle lovers?</t>
+          <t>Day Plan:
+Morning: Explore the Medina de Zaghouan, a historical site with traditional architecture and shops.
+Mid-Morning: Visit the Parc National de Zaghouan for a refreshing hike amidst lush greenery and natural springs.
+Midday: Try local cuisine at Restaurant La Joconde, known for its diverse dining options and convenient location.
+Afternoon: Visit the Zaghouan Aqueduct, a historic feat of Roman engineering that offers insights into ancient water management.
+Evening: Pamper yourself with a relaxing spa treatment at Résidence Séville, a luxurious hotel.
+Night: Experience the vibrant nightlife at "Salle des fêtes mariem," a top-rated discotheque.</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+L'art'doiz is a cafe in Zaghouan, Tunisia, located at (36.41836234334, 10.128480292988).
+It has a rating of 4.3 based on 28 reviews, and its main category is Cafe.
+Its workday timing is 06:00-00:00, and it is closed on [].
+The cafe's featured image is https://lh5.googleusercontent.com/p/AF1QipMIJtaQPBK5LMSG2IS5HgHRhw4YDcae1WsdVIp7=w408-h306-k-no
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+Restaurant La Joconde is a popular eatery situated in Zaghouan, Tunisia. Boasting a rating of 4.4, it remains closed on Sundays and operates from 9:00 AM to 4:00 PM on other days. Located at C43R+4HF, it offers a wide range of dining options. With its convenient location and inviting atmosphere, Restaurant La Joconde is a sought-after destination for both locals and visitors.
+Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in the city of Zaghouan, Tunisia. It is a well-preserved walled city with narrow streets, traditional houses, and a variety of shops and restaurants. The medina is home to a number of historical monuments, including the Great Mosque of Zaghouan, which was built in the 9th century. The Medina de Zaghouan is a popular tourist destination, and is known for its beautiful architecture and lively atmosphere.
+Parc National de Zaghouan is a renowned national park located in Zaghouan, Tunisia, with coordinates (36.40291, 10.14292). It boasts a high rating of 4.5 and is open 24 hours a day. Visitors can expect to explore the park's diverse landscapes, including its natural springs, waterfalls, and lush greenery. The park is a haven for nature enthusiasts, hikers, and those seeking a peaceful retreat.
+The Zaghouan Aqueduct is a historic aqueduct located near the city of Mohammedia in Tunisia. Built in the 2nd century AD by the Romans, the aqueduct was used to transport water from the Zaghouan Mountains to the city of Carthage. The aqueduct is 132 kilometers long and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination and is also used for agricultural purposes.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4516,10 +6284,64 @@
           <t>zaghouan</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.</t>
+        </is>
+      </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>What makes this 'nan' destination a must-visit during your trip planning, offering a unique and unforgettable experience?</t>
+          <t>Day Plan:
+Morning: Explore the historical site, Medina de Zaghouan, for a glimpse into the region's rich past.
+Mid-Morning: Visit the Zaghouan Aqueduct, a stunning testament to Roman engineering, and learn about its significance.
+Midday: Satisfy your taste buds with a delectable lunch at Layroo pizza, savoring the flavors of local cuisine.
+Afternoon: Immerse yourself in nature's wonders at the Parc National de Zaghouan, hiking through forests, admiring waterfalls, and exploring caves.
+Evening: Unwind and rejuvenate at the Résidence Séville, enjoying the hotel's amenities and indulging in a relaxing spa treatment.
+Night: Experience Zaghouan's nightlife at Salle des fêtes mariem, a popular discotheque where you can dance and create unforgettable memories.</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"next one" is a cafe located in Zaghouan, Tunisia. The cafe has a rating of 4.3 out of 5 stars on Google Maps and features a menu that includes a variety of coffee drinks, pastries, and sandwiches. "next one" is situated at coordinates (36.402915, 10.142236) and offers a warm and inviting atmosphere for customers to relax and enjoy their favorite beverages and snacks.
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+Layroo pizza is a restaurant located at (36.402915, 10.142236) in zaghouan. It has a rating of 4.0 and is open from 09:00-00:00. It offers a variety of dishes and has a featured image of https://lh5.googleusercontent.com/p/AF1QipOj2MfYceAgDSZZYYbTWYRgJoXAh9o3Fnr52mbE=w408-h306-k-no.
+Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, at coordinates (36.397737458615, 10.145884861582). With a rating of 4.6 based on 83 reviews, it's a popular destination for visitors interested in exploring the rich history of the region.
+The Parc National de Zaghouan is a protected area in Zaghouan, Tunisia. It is known for its stunning natural beauty, including forests, waterfalls, and caves. The park's unique landscape provides a habitat for a variety of flora and fauna, including endangered species.
+The park is open 24 hours a day and offers a variety of activities for visitors, including hiking, picnicking, and camping. There are also a number of historical and archaeological sites in the park, making it a great place to learn about Tunisia's rich history.
+Located at an altitude of 2,976 meters, the coordinates are 36.40291 N, 10.14292 E.
+The Zaghouan Aqueduct is a historic aqueduct located near the city of Mohammedia in Tunisia. Built in the 2nd century AD by the Romans, the aqueduct was used to transport water from the Zaghouan Mountains to the city of Carthage. The aqueduct is 132 kilometers long and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination and is also used for agricultural purposes.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4625,12 +6447,62 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in Zaghouan and looking for a great place to eat, check out Restaurant La Joconde located at C43R+4HF Restaurant La Joconde. This top-rated destination is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on Sundays. To get there, use these GPS coordinates: 43.7424346, 7.4218257. For more details, visit their website at https://www.google.com/maps/place/Restaurant+La+Joconde/data=!4m7!3m6!1s0x12fd110e115b731b:0xb14c008ac8600492!8m2!3d36.4028052!4d10.1414131!16s%2Fg%2F12hqrycnx!19sChIJG3NbEQ4R_RIRkgRgyIoATLE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 846 808.</t>
+          <t>Restaurant La Joconde is a popular eatery situated in Zaghouan, Tunisia. Boasting a rating of 4.4, it remains closed on Sundays and operates from 9:00 AM to 4:00 PM on other days. Located at C43R+4HF, it offers a wide range of dining options. With its convenient location and inviting atmosphere, Restaurant La Joconde is a sought-after destination for both locals and visitors.</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Where in Zaghouan can you find a highly rated restaurant called Restaurant La Joconde with a 4.4 rating and a wide variety of culinary options?</t>
+          <t>Day Plan:
+Morning: Exploring Medina de Zaghouan, the historic walled city with narrow streets and traditional houses.
+Mid-Morning: Visiting the Zaghouan Aqueduct, a historic Roman aqueduct built in the 2nd century AD.
+Midday: Trying local cuisine at Bon'Gosto, a pizzeria rated 5.0 out of 5 by its customers.
+Afternoon: Exploring the Parc National de Zaghouan, a protected area known for its stunning natural beauty, including forests, waterfalls, and caves.
+Evening: Enjoying scenic views at Montagne de Zaghouan, a natural reserve with beautiful forests, mountains, and lakes.
+Night: Experiencing nightlife at "Salle des fêtes mariem," a top-rated discotheque with an impressive 4.3-star rating.</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sunset coffee is located in the city of Zaghouan, Tunisia, offering a unique and alluring experience to coffee enthusiasts. This cafe has garnered rave reviews, earning an impressive 5.0 rating from its patrons. The featured image provides a captivating glimpse of the cafe's cozy and inviting ambiance. Operating 24 hours a day, Sunset coffee is the perfect destination for those seeking a caffeine fix or a delectable treat any time of day.
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+Bruno Salah is a restaurant in Zaghouan, Tunisia, offering a variety of dishes including sandwiches. Its location is 36.397737458615, 10.145884861582.
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in the city of Zaghouan, Tunisia. It is a well-preserved walled city with narrow streets, traditional houses, and a variety of shops and restaurants. The medina is home to a number of historical monuments, including the Great Mosque of Zaghouan, which was built in the 9th century. The Medina de Zaghouan is a popular tourist destination, and is known for its beautiful architecture and lively atmosphere.
+The Parc National de Zaghouan is a protected area in Zaghouan, Tunisia. It is known for its stunning natural beauty, including forests, waterfalls, and caves. The park's unique landscape provides a habitat for a variety of flora and fauna, including endangered species.
+The park is open 24 hours a day and offers a variety of activities for visitors, including hiking, picnicking, and camping. There are also a number of historical and archaeological sites in the park, making it a great place to learn about Tunisia's rich history.
+Located at an altitude of 2,976 meters, the coordinates are 36.40291 N, 10.14292 E.
+The Zaghouan Aqueduct is a historic aqueduct located near the city of Mohammedia in Tunisia. Built in the 2nd century AD by the Romans, the aqueduct was used to transport water from the Zaghouan Mountains to the city of Carthage. The aqueduct is 132 kilometers long and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination and is also used for agricultural purposes.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4732,12 +6604,60 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in Zaghouan and looking for a delicious meal, be sure to check out LA COMIDA, located at C42V+WW5 LA COMIDA, Cite el Bostene. This top-rated restaurant has a rating of 4.3 and is perfect for those who love great food. To get there, use these GPS coordinates: 36.403808691252, 10.145860039422. For more details, you can call them at 54 517 101.</t>
+          <t>LA COMIDA is a restaurant located in Cité el Bostene, Zaghouan, Tunisia. It is a great place to enjoy a delicious meal, with a rating of 4.3 out of 5 stars. You can contact LA COMIDA at 54 517 101.</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Where in Zaghouan can you find a highly-rated restaurant known for its exceptional dining experience and features GPS coordinates for easy navigation?</t>
+          <t>Day Plan:
+Morning: Explore Zaghouan's historic Medina, a UNESCO World Heritage Site.
+Mid-Morning: Take a guided tour of the Zaghouan Aqueduct, a testament to the ingenuity of ancient Romans.
+Midday: Visit Sunset Coffee in the city center for a refreshing beverage and a taste of local culture.
+Afternoon: Immerse yourself in nature at Parc National de Zaghouan, hike its trails, and enjoy the breathtaking scenery.
+Evening: Indulge in authentic Tunisian cuisine at LA COMIDA, a highly-rated restaurant known for its delicious dishes.
+Night: Experience the vibrant atmosphere of "Salle des fêtes mariem," a popular discotheque in the city center.</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sunset coffee is located in the city of Zaghouan, Tunisia, offering a unique and alluring experience to coffee enthusiasts. This cafe has garnered rave reviews, earning an impressive 5.0 rating from its patrons. The featured image provides a captivating glimpse of the cafe's cozy and inviting ambiance. Operating 24 hours a day, Sunset coffee is the perfect destination for those seeking a caffeine fix or a delectable treat any time of day.
+Located in the heart of Zaghouan, Time Out' is a cozy and welcoming establishment that offers a delightful café experience. With its convenient location, it's a perfect spot for locals and visitors alike. Time Out's menu features a tempting selection of drinks and snacks, making it an ideal place to relax and unwind.
+LA COMIDA is a restaurant located in Cité el Bostene, Zaghouan, Tunisia. It is a great place to enjoy a delicious meal, with a rating of 4.3 out of 5 stars. You can contact LA COMIDA at 54 517 101.
+Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, at coordinates (36.397737458615, 10.145884861582). With a rating of 4.6 based on 83 reviews, it's a popular destination for visitors interested in exploring the rich history of the region.
+Parc National de Zaghouan is a renowned national park located in Zaghouan, Tunisia, with coordinates (36.40291, 10.14292). It boasts a high rating of 4.5 and is open 24 hours a day. Visitors can expect to explore the park's diverse landscapes, including its natural springs, waterfalls, and lush greenery. The park is a haven for nature enthusiasts, hikers, and those seeking a peaceful retreat.
+Zaghouan Aqueduct is a historical monument located in Zaghouan, Tunisia. It is an ancient Roman aqueduct that used to transport water from springs in the Zaghouan Mountains to the city of Carthage. The aqueduct is a UNESCO World Heritage Site. It is known for its arches and viaducts, which are still standing today. The aqueduct is a popular tourist destination, and it offers a glimpse into the history and culture of Tunisia.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4843,12 +6763,62 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a great cafe, check out Espace de Loisirs La Grotte located at Espace de Loisirs La Grotte, Zaghouan. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.402915, 10.142236. For more details, visit their website or call them at 23 037 303.</t>
+          <t>Espace de Loisirs La Grotte is a cafe located in Zaghouan, Tunisia. It has a rating of 4.4 out of 5 stars and is open from 7 am to midnight. The cafe offers a variety of food and drinks, and is a popular spot for locals and tourists alike. The cafe is located at 36.402915, 10.142236.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>What highly-rated café with a wide selection of categories can be found in Zaghouan, offering a perfect venue for café enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historical Zaghouan Aqueduct, a UNESCO World Heritage Site.
+Mid-Morning: Visit the Parc National de Zaghouan, known for its stunning natural beauty, hiking trails, and historical sites.
+Midday: Try local cuisine at LA COMIDA, a restaurant highly rated for its delicious meals.
+Afternoon: Engage in outdoor activities like hiking or picnicking at the Montagne de Zaghouan, a natural reserve with breathtaking scenery.
+Evening: Experience cultural immersion at the Medina de Zaghouan, a well-preserved walled city with traditional houses and lively atmosphere.
+Night: Enjoy a memorable entertainment experience at "Salle des fêtes mariem," a top-rated discotheque with an impressive ambiance.</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Malouf**, located in Zaghouan, Tunisia, is a renowned cafe frequented by locals and tourists alike. Situated at the heart of the city, it offers a cozy ambiance and a warm atmosphere. The cafe boasts a rating of 4.3 stars, highlighting its excellence in service and offerings. It is open daily from 5:00 AM to 9:00 PM, making it an ideal destination for early risers and late-night coffee enthusiasts.
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+LA COMIDA is a restaurant located in Cité el Bostene, Zaghouan, Tunisia. It is a great place to enjoy a delicious meal, with a rating of 4.3 out of 5 stars. You can contact LA COMIDA at 54 517 101.
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in the city of Zaghouan, Tunisia. It is a well-preserved walled city with narrow streets, traditional houses, and a variety of shops and restaurants. The medina is home to a number of historical monuments, including the Great Mosque of Zaghouan, which was built in the 9th century. The Medina de Zaghouan is a popular tourist destination, and is known for its beautiful architecture and lively atmosphere.
+The Parc National de Zaghouan is a protected area in Zaghouan, Tunisia. It is known for its stunning natural beauty, including forests, waterfalls, and caves. The park's unique landscape provides a habitat for a variety of flora and fauna, including endangered species.
+The park is open 24 hours a day and offers a variety of activities for visitors, including hiking, picnicking, and camping. There are also a number of historical and archaeological sites in the park, making it a great place to learn about Tunisia's rich history.
+Located at an altitude of 2,976 meters, the coordinates are 36.40291 N, 10.14292 E.
+Zaghouan Aqueduct is a historical monument located in Zaghouan, Tunisia. It is an ancient Roman aqueduct that used to transport water from springs in the Zaghouan Mountains to the city of Carthage. The aqueduct is a UNESCO World Heritage Site. It is known for its arches and viaducts, which are still standing today. The aqueduct is a popular tourist destination, and it offers a glimpse into the history and culture of Tunisia.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4954,14 +6924,63 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in Zaghouan and looking for a cozy cafe, check out L'art'doiz located at 1100 Rue D'environnement. 
-This local favorite is perfect for cafe lovers and offers a range of drink options to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on unspecified days. To get there, use these GPS coordinates: 36.41836234334, 10.128480292988. For more details, visit their website or call them at 98 642 562.</t>
+          <t>L'Art'doiz is a cafe located in Zaghouan, Tunisia. It has a rating of 4.3 stars and offers a cozy atmosphere with a wide selection of drinks and snacks. The cafe is situated at 1100 Rue D'environnement and is open from 6:00AM to midnight, seven days a week.</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>What is the cozy cafe frequented by locals in Zaghouan, located at GPS coordinates 36.41836234334, 10.128480292988?</t>
+          <t>Day Plan:
+Morning: Explore the historical Medina de Zaghouan (4.6 rating, 83 reviews) and uncover its rich history.
+Mid-Morning: Indulge in the local flavors at Cheesy Food, highly rated with 4.6 out of 5 and offering tantalizing dishes.
+Midday: Immerse yourself in nature's beauty at Parc National de Zaghouan with its captivating waterfalls and diverse wildlife.
+Afternoon: Discover the captivating Zaghouan Aqueduct, recognized as a UNESCO World Heritage Site, and admire its impressive architecture.
+Evening: Experience the vibrant local music and dance at "Salle des fêtes mariem," a top-rated discotheque.
+Night: Unwind and savor the delectable offerings at Bon'Gosto, a pizzeria with an impeccable 5.0 rating.</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Café Errahba**
+Nestled in the vibrant city of Zaghouan, Café Errahba is a cozy and welcoming destination for coffee lovers and casual diners alike. Located at coordinates (36.402915, 10.142236), this popular café serves up delectable treats and a warm ambiance.
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+Cheesy food is a restaurant located in Zaghouan, Tunisia (36.38127755, 10.18536985). Unfortunately, there is no detailed description or information available about this place. However, it is rated 4.6 out of 5 based on 5 reviews, suggesting that it is a well-regarded establishment in the area.
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, at coordinates (36.397737458615, 10.145884861582). With a rating of 4.6 based on 83 reviews, it's a popular destination for visitors interested in exploring the rich history of the region.
+The Parc National de Zaghouan is a protected area in Zaghouan, Tunisia. It is known for its stunning natural beauty, including forests, waterfalls, and caves. The park's unique landscape provides a habitat for a variety of flora and fauna, including endangered species.
+The park is open 24 hours a day and offers a variety of activities for visitors, including hiking, picnicking, and camping. There are also a number of historical and archaeological sites in the park, making it a great place to learn about Tunisia's rich history.
+Located at an altitude of 2,976 meters, the coordinates are 36.40291 N, 10.14292 E.
+Zaghouan Aqueduct is a historical monument located in Zaghouan, Tunisia. It is an ancient Roman aqueduct that used to transport water from springs in the Zaghouan Mountains to the city of Carthage. The aqueduct is a UNESCO World Heritage Site. It is known for its arches and viaducts, which are still standing today. The aqueduct is a popular tourist destination, and it offers a glimpse into the history and culture of Tunisia.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5067,12 +7086,60 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a relaxing spot, check out Time Out' (Ain Zaghouan nord ) located at rue de l'Algerie, Tunis 2045. This top-rated destination is perfect for Salon de the lovers and offers a range of categories to choose from, including Salon de the, Cafe, and Restaurant. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 06:30-00:00. To get there, use these GPS coordinates: 36.396039107999, 10.145642268539. For more details, visit their website at https://www.google.com/maps/place/Time+Out%27+%28Ain+Zaghouan+nord+%29/data=!4m7!3m6!1s0x12e2b5c1513b9bfb:0x63ca5ce1877df1b!8m2!3d36.8619961!4d10.2888487!16s%2Fg%2F11n0r_551l!19sChIJ-5s7UcG14hIRG993GM6lPAY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 496 000.</t>
+          <t>Located in the heart of Zaghouan, Time Out' is a cozy and welcoming establishment that offers a delightful café experience. With its convenient location, it's a perfect spot for locals and visitors alike. Time Out's menu features a tempting selection of drinks and snacks, making it an ideal place to relax and unwind.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>What is the address of the highly-rated spot in Zaghouan that offers relaxation and serves as a popular destination for Salon de the enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring Medina de Zaghouan
+Mid-Morning: Visiting Parc National de Zaghouan
+Midday: Trying local cuisine at LA COMIDA
+Afternoon: Relaxing at Residence Seville - Ain Zaghouan
+Evening: Participating in an event at "Salle des fêtes mariem"
+Night: Trying local cuisine at Bon'Gosto</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe gypsy is a cafe located in Zaghouan, Tunisia. It offers a variety of food and drinks, and has a rating of 4.3 on Google. The cafe is located at the coordinates (36.402915, 10.142236).
+Located in the heart of Zaghouan, Time Out' is a cozy and welcoming establishment that offers a delightful café experience. With its convenient location, it's a perfect spot for locals and visitors alike. Time Out's menu features a tempting selection of drinks and snacks, making it an ideal place to relax and unwind.
+LA COMIDA is a restaurant located in Cité el Bostene, Zaghouan, Tunisia. It is a great place to enjoy a delicious meal, with a rating of 4.3 out of 5 stars. You can contact LA COMIDA at 54 517 101.
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, known for its well-preserved historic architecture and rich cultural heritage. Its prime location offers a unique blend of history, culture, and local attractions.
+Parc National de Zaghouan is a renowned national park located in Zaghouan, Tunisia, with coordinates (36.40291, 10.14292). It boasts a high rating of 4.5 and is open 24 hours a day. Visitors can expect to explore the park's diverse landscapes, including its natural springs, waterfalls, and lush greenery. The park is a haven for nature enthusiasts, hikers, and those seeking a peaceful retreat.
+The Zaghouan Aqueduct is a historic aqueduct located near the city of Mohammedia in Tunisia. Built in the 2nd century AD by the Romans, the aqueduct was used to transport water from the Zaghouan Mountains to the city of Carthage. The aqueduct is 132 kilometers long and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination and is also used for agricultural purposes.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5174,12 +7241,60 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a top-rated destination for Restaurant lovers, Mechoui Zaghouan is a must-visit spot. Located at C4CG+92X Mechoui Zaghouan, Zaghouan, this place has a rating of 4.2 and is open 24 hours a day. For more details, visit their website at https://www.google.com/maps/place/Mechoui+Zaghouan/data=!4m7!3m6!1s0x12fd10df541cdead:0xe1e778344ccfa28d!8m2!3d36.420985!4d10.1251142!16s%2Fg%2F11gdgq8v1k!19sChIJrd4cVN8Q_RIRjaLPTDR45-E?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan. You can also use the GPS coordinates (36.402915, 10.142236) to get there.</t>
+          <t>Mechoui Zaghouan, located in Zaghouan, Tunisia, is a 4.2-rated restaurant with 17 reviews. It is a popular spot open 24 hours a day, offering a range of dishes to its customers. Its exact location is at coordinates (36.402915, 10.142236).</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Where in Zaghouan can you find Mechoui Zaghouan, a 4.2-rated Restaurant lovers' paradise open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the well-preserved Medina de Zaghouan, a historical site with narrow streets, traditional houses, and various shops and restaurants.
+Mid-Morning: Head over to the nearby Salon de Thé Damas for a relaxing cup of tea in a cozy atmosphere.
+Midday: Indulge in a delicious lunch at Zaghouan Tabouna, a restaurant offering a wide selection of traditional Tunisian dishes and international fare.
+Afternoon: Visit the Parc National de Zaghouan, renowned for its diverse landscapes, natural springs, waterfalls, and lush greenery, providing a peaceful retreat for nature enthusiasts.
+Evening: Experience the vibrant nightlife at the top-rated discotheque "Salle des fêtes mariem," known for its unforgettable entertainment experience.
+Night: End the day with a delightful dinner at Bon'Gosto, a pizzeria highly praised by customers for its exceptional cuisine.</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Zaghouan, Cafe Bamaco is renowned as a Cafe, offering a warm and welcoming ambiance. Located at the coordinates (36.402915, 10.142236), this cafe proudly holds a 4.0-star rating based on customer reviews. Open from 7:00 AM to midnight, Cafe Bamaco caters to your cravings throughout most of the day.
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+Zaghouan Tabouna is a restaurant located in Zaghouan, Tunisia. It offers a wide variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at C42R+WF2 Zaghouan Tabouna, Rue Khaireddine, Zaghouan, Tunisia.
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in the city of Zaghouan, Tunisia. It is a well-preserved walled city with narrow streets, traditional houses, and a variety of shops and restaurants. The medina is home to a number of historical monuments, including the Great Mosque of Zaghouan, which was built in the 9th century. The Medina de Zaghouan is a popular tourist destination, and is known for its beautiful architecture and lively atmosphere.
+Parc National de Zaghouan is a renowned national park located in Zaghouan, Tunisia, with coordinates (36.40291, 10.14292). It boasts a high rating of 4.5 and is open 24 hours a day. Visitors can expect to explore the park's diverse landscapes, including its natural springs, waterfalls, and lush greenery. The park is a haven for nature enthusiasts, hikers, and those seeking a peaceful retreat.
+Zaghouan Aqueduct is a historical monument located in Zaghouan, Tunisia. It is an ancient Roman aqueduct that used to transport water from springs in the Zaghouan Mountains to the city of Carthage. The aqueduct is a UNESCO World Heritage Site. It is known for its arches and viaducts, which are still standing today. The aqueduct is a popular tourist destination, and it offers a glimpse into the history and culture of Tunisia.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5285,12 +7400,62 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a top-rated place for Cafe lovers, check out Grech Coffee located at Rue 20 Mars, Zaghouan 1100. With a rating of 4.9 out of 5, this cafe is a must-visit spot for those who appreciate a great cup of coffee. It's open daily from 06:00 AM to 12:00 AM, so you can enjoy your favorite beverages and snacks whenever you like. For more details, visit their website or call them at 50 554 971.</t>
+          <t>Grech Coffee is a cozy cafe located in the heart of Zaghouan, Tunisia. Open from 6am to midnight, it offers a warm and inviting atmosphere for locals and tourists alike. With a rating of 4.9 stars based on 11 reviews, Grech Coffee is highly regarded for its delicious coffee and friendly service. Coordinates: (36.404729191151, 10.140551547855)</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>If you're seeking a highly-rated spot in Zaghouan for coffee enthusiasts, what café located on Rue 20 Mars boasts an exceptional 4.9 out of 5 rating?</t>
+          <t>Day Plan:
+Morning: Explore the historic Zaghouan Aqueduct, a UNESCO World Heritage Site.
+Mid-Morning: Visit the Medina de Zaghouan, a bustling marketplace with traditional shops and cafes.
+Midday: Try local cuisine at Layroo pizza, known for its delicious pizzas and 4.0-star rating.
+Afternoon: Enjoy a scenic hike in the Montagne de Zaghouan natural reserve, known for its stunning forests and diverse wildlife.
+Evening: Indulge in a relaxing stay at Residence Seville - Ain Zaghouan, a 4.5-star hotel with a restaurant, bar, and garden.
+Night: Immerse yourself in the lively nightlife scene at "Salle des fêtes mariem", a top-rated discotheque.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Zaghouan, Cafe Bamaco is renowned as a Cafe, offering a warm and welcoming ambiance. Located at the coordinates (36.402915, 10.142236), this cafe proudly holds a 4.0-star rating based on customer reviews. Open from 7:00 AM to midnight, Cafe Bamaco caters to your cravings throughout most of the day.
+Located in the heart of Zaghouan, Time Out' is a cozy and welcoming establishment that offers a delightful café experience. With its convenient location, it's a perfect spot for locals and visitors alike. Time Out's menu features a tempting selection of drinks and snacks, making it an ideal place to relax and unwind.
+Layroo pizza is a restaurant located at (36.402915, 10.142236) in zaghouan. It has a rating of 4.0 and is open from 09:00-00:00. It offers a variety of dishes and has a featured image of https://lh5.googleusercontent.com/p/AF1QipOj2MfYceAgDSZZYYbTWYRgJoXAh9o3Fnr52mbE=w408-h306-k-no.
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, at coordinates (36.397737458615, 10.145884861582). With a rating of 4.6 based on 83 reviews, it's a popular destination for visitors interested in exploring the rich history of the region.
+The Parc National de Zaghouan is a protected area in Zaghouan, Tunisia. It is known for its stunning natural beauty, including forests, waterfalls, and caves. The park's unique landscape provides a habitat for a variety of flora and fauna, including endangered species.
+The park is open 24 hours a day and offers a variety of activities for visitors, including hiking, picnicking, and camping. There are also a number of historical and archaeological sites in the park, making it a great place to learn about Tunisia's rich history.
+Located at an altitude of 2,976 meters, the coordinates are 36.40291 N, 10.14292 E.
+Zaghouan Aqueduct is a historical monument located in Zaghouan, Tunisia. It is an ancient Roman aqueduct that used to transport water from springs in the Zaghouan Mountains to the city of Carthage. The aqueduct is a UNESCO World Heritage Site. It is known for its arches and viaducts, which are still standing today. The aqueduct is a popular tourist destination, and it offers a glimpse into the history and culture of Tunisia.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5392,12 +7557,60 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in zaghouan, Bruno Salah is a top-rated restaurant worth visiting. Located at 94XW+FV8 Bruno Salah, Rue Sidi Ali Azzouz, Zaghouan, this highly-rated spot boasts a 4.7 rating and is perfect for those who love to dine out. With a cozy ambiance and a menu featuring mouthwatering sandwiches, it's a must-try for food enthusiasts. To get there, you can use the GPS coordinates (36.397737458615, 10.145884861582). For more details, you can call them at 25 406 333.</t>
+          <t>Bruno Salah is a restaurant in Zaghouan, Tunisia, offering a variety of dishes including sandwiches. Its location is 36.397737458615, 10.145884861582.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Where in Zaghouan can you find the top-rated restaurant, Bruno Salah, known for its cozy ambiance and mouthwatering sandwiches?</t>
+          <t>Day Plan:
+Morning: Take a guided tour of the historic Medina de Zaghouan (Historical Site).
+Mid-Morning: Explore the scenic Natural Water Source (Waterbed Store) for a relaxing experience.
+Midday: Enjoy the delicious local cuisine at Bon'Gosto (Pizzeria).
+Afternoon: Visit the Parc National de Zaghouan (National Park) for an unforgettable experience in nature.
+Evening: Participate in the lively nightlife at "Salle des fêtes mariem" (Discotheque).
+Night: Indulge in a relaxing night at Residence Seville - Ain Zaghouan (Hotel).</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Grech Coffee is a cozy cafe located in the heart of Zaghouan, Tunisia. Open from 6am to midnight, it offers a warm and inviting atmosphere for locals and tourists alike. With a rating of 4.9 stars based on 11 reviews, Grech Coffee is highly regarded for its delicious coffee and friendly service. Coordinates: (36.404729191151, 10.140551547855)
+Located in the heart of Zaghouan, Time Out' is a cozy and welcoming establishment that offers a delightful café experience. With its convenient location, it's a perfect spot for locals and visitors alike. Time Out's menu features a tempting selection of drinks and snacks, making it an ideal place to relax and unwind.
+TASSOU JUICE is a restaurant located in Zaghouan, Tunisia, close to the city center. It's open every day from 7:00 AM to midnight and offers a variety of food options.
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in the city of Zaghouan, Tunisia. It is a well-preserved walled city with narrow streets, traditional houses, and a variety of shops and restaurants. The medina is home to a number of historical monuments, including the Great Mosque of Zaghouan, which was built in the 9th century. The Medina de Zaghouan is a popular tourist destination, and is known for its beautiful architecture and lively atmosphere.
+Parc National de Zaghouan is a national park located in Zaghouan, Tunisia. It is an attraction for tourism with the latitude of 36.40291 and the longitude of 10.14292. It is open 24/7 and offers an unforgettable experience to its visitors.
+The Zaghouan Aqueduct is a historic aqueduct located near the city of Mohammedia in Tunisia. Built in the 2nd century AD by the Romans, the aqueduct was used to transport water from the Zaghouan Mountains to the city of Carthage. The aqueduct is 132 kilometers long and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination and is also used for agricultural purposes.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5499,14 +7712,60 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for something fun to do, check out Zaghouan Tabouna located at Rue Khaireddine. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:30-22:00. To get there, use these GPS coordinates: 36.402680864697, 10.141498690923. For more details, visit their website at https://www.google.com/maps/place/Zaghouan+Tabouna/data=!4m7!3m6!1s0x12fd110e6ba4cbdb:0x790c136105e32c61!8m2!3d36.4022554!4d10.1411435!16s%2Fg%2F11f50s_9_k!19sChIJ28ukaw4R_RIRYSzjBWETDHk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Zaghouan Tabouna is a restaurant located in Zaghouan, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine. The restaurant is located at C42R+WF2 Zaghouan Tabouna, Rue Khaireddine, Zaghouan, and its coordinates are (36.402680864697, 10.141498690923). The restaurant is open from 08:30-22:00, and its average rating is 4.6 stars.</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>Where can you find Zaghouan Tabouna, a highly-rated dining spot for restaurant enthusiasts with a 4.6 rating?</t>
+          <t>Day Plan:
+Morning: Explore the ruins of Zaghouan Aqueduct.
+Mid-Morning: Visit Parc National de Zaghouan for a hike and picnic.
+Midday: Try local cuisine at Bon'Gosto pizzeria (rated 5 out of 5 by customers).
+Afternoon: Relax with a massage at Residence Seville - Ain Zaghouan, a 4.5-star hotel.
+Evening: Enjoy dinner at BBQ Ain Zaghouane, a 5.0 rated restaurant offering grilled dishes.
+Night: Experience the local nightlife at "Salle des fêtes mariem", a top-rated discotheque.</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Espace de Loisirs La Grotte is a cafe located in Zaghouan, Tunisia. It is open from 7am to midnight and is rated 4.4 out of 5 stars on Google. The cafe has a featured image of its exterior and 32 reviews. The link to the Google Maps page for the cafe is https://www.google.com/maps/place/Espace+de+Loisirs+La+Grotte/data=!4m7!3m6!1s0x12fd112d5adae3b5:0xa7602fb4e1db770d!8m2!3d36.3994608!4d10.1463217!16s%2Fg%2F11vppc19dx!19sChIJtePaWi0R_RIRDXfb4bQvYKc?authuser=0&amp;hl=fr&amp;rclk=1.
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+Zaghouan Tabouna is a restaurant located in Zaghouan, Tunisia. It offers a wide variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at C42R+WF2 Zaghouan Tabouna, Rue Khaireddine, Zaghouan, Tunisia.
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, known for its well-preserved historic architecture and rich cultural heritage. Its prime location offers a unique blend of history, culture, and local attractions.
+Parc National de Zaghouan is a renowned national park located in Zaghouan, Tunisia, with coordinates (36.40291, 10.14292). It boasts a high rating of 4.5 and is open 24 hours a day. Visitors can expect to explore the park's diverse landscapes, including its natural springs, waterfalls, and lush greenery. The park is a haven for nature enthusiasts, hikers, and those seeking a peaceful retreat.
+The Zaghouan Aqueduct is a historic aqueduct located near the city of Mohammedia in Tunisia. Built in the 2nd century AD by the Romans, the aqueduct was used to transport water from the Zaghouan Mountains to the city of Carthage. The aqueduct is 132 kilometers long and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination and is also used for agricultural purposes.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5608,13 +7867,62 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in zaghouan, you must visit Cheesy food located at Cheesy food, Zaghouan 1100. It's a top-rated destination for Restaurant lovers. With a rating of 4.6, it's a must-visit spot. To get there, you can use these GPS coordinates: 36.38127755, 10.18536985. 
-For more details, visit their website at https://www.google.com/maps/place/Cheesy+food/data=!4m7!3m6!1s0x12fd11b581035229:0x917b17b48b0e9030!8m2!3d36.4042453!4d10.1405035!16s%2Fg%2F11t30snt1b!19sChIJKVIDgbUR_RIRMJAOi7QXe5E?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 640 805.</t>
+          <t>Cheesy food is a restaurant located in Zaghouan, Tunisia (36.38127755, 10.18536985). Unfortunately, there is no detailed description or information available about this place. However, it is rated 4.6 out of 5 based on 5 reviews, suggesting that it is a well-regarded establishment in the area.</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>What is the name and location of the top-rated Restaurant destination in Zaghouan with a rating of 4.6?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina de Zaghouan, with its well-preserved walled city and traditional houses.
+Mid-Morning: Visit the Zaghouan Aqueduct, a UNESCO World Heritage Site, and marvel at its impressive arches and viaducts.
+Midday: Savor local cuisine at Bon'Gosto, a pizzeria highly rated by customers.
+Afternoon: Enjoy scenic views at the Parc National de Zaghouan, known for its stunning natural beauty and diverse flora and fauna.
+Evening: Participate in the lively nightlife scene at "Salle des fêtes mariem," a top-rated discotheque in Zaghouan.
+Night: Relax and unwind at a traditional Hammam or Spa in Zaghouan.</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Milano is a cafe located in Zaghouan, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and sandwiches. The cafe is located at 94XW+VH7 Cafe Milano, Av. 14 janvier, Zaghouan. Latitude: 36.39970598805, Longitude: 10.14909209247.
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+Layroo pizza is a restaurant located at (36.402915, 10.142236) in zaghouan. It has a rating of 4.0 and is open from 09:00-00:00. It offers a variety of dishes and has a featured image of https://lh5.googleusercontent.com/p/AF1QipOj2MfYceAgDSZZYYbTWYRgJoXAh9o3Fnr52mbE=w408-h306-k-no.
+Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in the city of Zaghouan, Tunisia. It is a well-preserved walled city with narrow streets, traditional houses, and a variety of shops and restaurants. The medina is home to a number of historical monuments, including the Great Mosque of Zaghouan, which was built in the 9th century. The Medina de Zaghouan is a popular tourist destination, and is known for its beautiful architecture and lively atmosphere.
+The Parc National de Zaghouan is a protected area in Zaghouan, Tunisia. It is known for its stunning natural beauty, including forests, waterfalls, and caves. The park's unique landscape provides a habitat for a variety of flora and fauna, including endangered species.
+The park is open 24 hours a day and offers a variety of activities for visitors, including hiking, picnicking, and camping. There are also a number of historical and archaeological sites in the park, making it a great place to learn about Tunisia's rich history.
+Located at an altitude of 2,976 meters, the coordinates are 36.40291 N, 10.14292 E.
+Zaghouan Aqueduct is a historical monument located in Zaghouan, Tunisia. It is an ancient Roman aqueduct that used to transport water from springs in the Zaghouan Mountains to the city of Carthage. The aqueduct is a UNESCO World Heritage Site. It is known for its arches and viaducts, which are still standing today. The aqueduct is a popular tourist destination, and it offers a glimpse into the history and culture of Tunisia.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5716,12 +8024,62 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and seeking a great pizza, head to Bon'Gosto, situated at C43R+869. This top-rated pizzeria offers a mouthwatering variety of pizzas to satisfy your cravings. Bon'Gosto boasts a remarkable 5.0 rating, making it a must-visit spot for pizza enthusiasts. You can contact them at 99 583 888 for further information. To get there, you can use the GPS coordinates: 36.402915, 10.142236.</t>
+          <t>Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>Where in Zaghouan can you find the highly-rated Bon'Gosto pizzeria, known for its exceptional pizzas?</t>
+          <t>Day Plan:
+Morning: Visit Medina de Zaghouan to explore its historical significance and capture the local culture.
+Mid-Morning: Try local cuisine at Bon'Gosto, highly recommended for authentic Tunisian flavors.
+Midday: Visit Parc National de Zaghouan for a scenic hike amidst stunning nature.
+Afternoon: Enjoy a relaxing break at Residence Seville - Ain Zaghouan, indulging in the hotel's amenities and comfortable atmosphere.
+Evening: Experience the nightlife at "Salle des fêtes mariem," known for its lively ambiance and entertainment.
+Night: Head to Zaghouan Aqueduct for a captivating night-time stroll beneath the ancient arches.</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+La Fabrica is a popular café located in Zaghouan, Tunisia. Known for its cozy ambiance and delectable offerings, La Fabrica has earned a 4.9 rating based on 24 reviews. It is renowned for its exquisite coffee and sweet treats. Customers rave about its 24/7 availability, making it an ideal spot for late-night cravings or early morning pick-me-ups.
+Located in the heart of Zaghouan, Time Out' is a cozy and welcoming establishment that offers a delightful café experience. With its convenient location, it's a perfect spot for locals and visitors alike. Time Out's menu features a tempting selection of drinks and snacks, making it an ideal place to relax and unwind.
+TASSOU JUICE is a restaurant located in Zaghouan, Tunisia, close to the city center. It's open every day from 7:00 AM to midnight and offers a variety of food options.
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, at coordinates (36.397737458615, 10.145884861582). With a rating of 4.6 based on 83 reviews, it's a popular destination for visitors interested in exploring the rich history of the region.
+The Parc National de Zaghouan is a protected area in Zaghouan, Tunisia. It is known for its stunning natural beauty, including forests, waterfalls, and caves. The park's unique landscape provides a habitat for a variety of flora and fauna, including endangered species.
+The park is open 24 hours a day and offers a variety of activities for visitors, including hiking, picnicking, and camping. There are also a number of historical and archaeological sites in the park, making it a great place to learn about Tunisia's rich history.
+Located at an altitude of 2,976 meters, the coordinates are 36.40291 N, 10.14292 E.
+Zaghouan Aqueduct is a historical monument located in Zaghouan, Tunisia. It is an ancient Roman aqueduct that used to transport water from springs in the Zaghouan Mountains to the city of Carthage. The aqueduct is a UNESCO World Heritage Site. It is known for its arches and viaducts, which are still standing today. The aqueduct is a popular tourist destination, and it offers a glimpse into the history and culture of Tunisia.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5815,12 +8173,60 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a top-rated Restaurant, Fatma kaak warka zaghouan is one to consider. Located at C42W+VGM Fatma kaak warka zaghouan, Rue el Ouard, Zaghouan, this destination caters to Restaurant lovers specifically, with a rating of 4.5.</t>
+          <t>Fatma kaak warka zaghouan is a restaurant located in Zaghouan (Tunisia), offering a variety of dishes. The restaurant has a 4.5 star rating on Google with 2 reviews. The restaurant is located at the following coordinates: (36.403004870365, 10.143450019014).</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>Where in Zaghouan can you find Fatma kaak warka zaghouan, a highly-rated Restaurant with a 4.5 rating catering specifically to Restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historic Medina de Zaghouan, a UNESCO World Heritage Site with ancient ruins and captivating architecture.
+Mid-Morning: Indulge in local cuisine at Fatma kaak warka zaghouan, highly rated for its authentic Tunisian dishes.
+Midday: Discover the scenic Montagne de Zaghouan, a natural reserve with stunning views and ample opportunities for hiking and picnicking.
+Afternoon: Visit the Zaghouan Aqueduct, a remarkable feat of Roman engineering, and explore its historical significance.
+Evening: Experience the vibrant atmosphere at "Salle des fêtes mariem", a popular discotheque with excellent reviews for its entertainment offerings.
+Night: Relax and unwind at Residence Seville - Ain Zaghouan, a 4.5-star hotel with comfortable accommodations and a tranquil ambiance.</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Given these locations:
+This is the Café zaytouna, a cafe located in Zaghouan, Tunisia. It is likely close to location 10.142236° E, 36.402915° N.
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+Fatma kaak warka zaghouan is a restaurant located in Zaghouan (Tunisia), offering a variety of dishes. The restaurant has a 4.5 star rating on Google with 2 reviews. The restaurant is located at the following coordinates: (36.403004870365, 10.143450019014).
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, at coordinates (36.397737458615, 10.145884861582). With a rating of 4.6 based on 83 reviews, it's a popular destination for visitors interested in exploring the rich history of the region.
+Parc National de Zaghouan is a national park located in Zaghouan, Tunisia. It is an attraction for tourism with the latitude of 36.40291 and the longitude of 10.14292. It is open 24/7 and offers an unforgettable experience to its visitors.
+The Zaghouan Aqueduct is a historic aqueduct located near the city of Mohammedia in Tunisia. Built in the 2nd century AD by the Romans, the aqueduct was used to transport water from the Zaghouan Mountains to the city of Carthage. The aqueduct is 132 kilometers long and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination and is also used for agricultural purposes.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5922,13 +8328,66 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for a great Restaurant de grillades, check out BBQ Ain zaghouane located at V75M+FRM BBQ Ain zaghouane. 
-This top-rated destination offers a range of Restaurant de grillades to choose from and has a rating of 5.0, making it a must-visit spot. To get there, use these GPS coordinates: 36.85401, 10.2848. For more details, visit their website at https://www.google.com/maps/place/BBQ+Ain+zaghouane/data=!4m7!3m6!1s0x12e2b5005f8097e5:0x4b9bd0dba8d69365!8m2!3d36.8587146!4d10.2845494!16s%2Fg%2F11vwldk8s2!19sChIJ5ZeAXwC14hIRZZPWqNvQm0s?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 532 970.</t>
+          <t>BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>Where in Zaghouan can you find a highly-rated Restaurant de grillades with GPS coordinates of 36.85401, 10.2848?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historical Medina de Zaghouan, admiring its well-preserved architecture and rich cultural heritage.
+**Mid-Morning:**
+- Visit the Parc National de Zaghouan, immerse yourself in its natural beauty, and witness its diverse landscapes.
+**Midday:**
+- Try local cuisine at Fatma kaak warka zaghouan, renowned for its authentic Tunisian dishes.
+**Afternoon:**
+- Take a guided tour of the Zaghouan Aqueduct, marveling at its impressive Roman engineering and historical significance.
+**Evening:**
+- Shop for local souvenirs and craft at the bustling Zaghouan's souk.
+**Night:**
+- Enjoy a captivating entertainment experience at "Salle des fêtes mariem," indulging in its 4.3-star-rated atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Kaak Warka is a cafe located at the coordinates (36.402915, 10.142236) in Zaghouan, Tunisia. With 5.0 of rating on Google Maps, it offers its services in the categories of cafes.
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+Fatma kaak warka zaghouan is a restaurant located in Zaghouan (Tunisia), offering a variety of dishes. The restaurant has a 4.5 star rating on Google with 2 reviews. The restaurant is located at the following coordinates: (36.403004870365, 10.143450019014).
+Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, known for its well-preserved historic architecture and rich cultural heritage. Its prime location offers a unique blend of history, culture, and local attractions.
+Parc National de Zaghouan is a renowned national park located in Zaghouan, Tunisia, with coordinates (36.40291, 10.14292). It boasts a high rating of 4.5 and is open 24 hours a day. Visitors can expect to explore the park's diverse landscapes, including its natural springs, waterfalls, and lush greenery. The park is a haven for nature enthusiasts, hikers, and those seeking a peaceful retreat.
+The Zaghouan Aqueduct is a historic aqueduct located near the city of Mohammedia in Tunisia. Built in the 2nd century AD by the Romans, the aqueduct was used to transport water from the Zaghouan Mountains to the city of Carthage. The aqueduct is 132 kilometers long and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination and is also used for agricultural purposes.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6030,14 +8489,62 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in Zaghouan and craving delicious crepes, head to Choco Crepe located at C44M+GR6 Choco Crepe, Bd De La Terre. 
-This family-friendly restaurant is a top-rated destination with a 5.0 rating. Open during regular business hours, Choco Crepe offers a mouthwatering selection of crepes. 
-To get there, use the GPS coordinates 36.402915, 10.142236 and be prepared to indulge in some delectable treats!</t>
+          <t>Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>Where in Zaghouan can you enjoy highly-rated crepes made with fresh ingredients in a family-friendly atmosphere?</t>
+          <t>Day Plan:
+Morning: Explore the historical Zaghouan Aqueduct.
+Mid-Morning: Visit the Medina de Zaghouan to delve into the city's rich history.
+Midday: Savory local cuisine at Zaghouan Tabouna, renowned for its traditional Tunisian dishes.
+Afternoon: Escape to the serene Parc National de Zaghouan, immersing yourself in its natural beauty.
+Evening: Indulge in delectable grilled delights at the highly-rated BBQ Ain Zaghouane.
+Night: Experience the vibrant nightlife at "Salle des fêtes mariem," a top-rated discotheque in Zaghouan.</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Malouf**, located in Zaghouan, Tunisia, is a renowned cafe frequented by locals and tourists alike. Situated at the heart of the city, it offers a cozy ambiance and a warm atmosphere. The cafe boasts a rating of 4.3 stars, highlighting its excellence in service and offerings. It is open daily from 5:00 AM to 9:00 PM, making it an ideal destination for early risers and late-night coffee enthusiasts.
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+Zaghouan Tabouna is a restaurant located in Zaghouan, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine. The restaurant is located at C42R+WF2 Zaghouan Tabouna, Rue Khaireddine, Zaghouan, and its coordinates are (36.402680864697, 10.141498690923). The restaurant is open from 08:30-22:00, and its average rating is 4.6 stars.
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, at coordinates (36.397737458615, 10.145884861582). With a rating of 4.6 based on 83 reviews, it's a popular destination for visitors interested in exploring the rich history of the region.
+The Parc National de Zaghouan is a protected area in Zaghouan, Tunisia. It is known for its stunning natural beauty, including forests, waterfalls, and caves. The park's unique landscape provides a habitat for a variety of flora and fauna, including endangered species.
+The park is open 24 hours a day and offers a variety of activities for visitors, including hiking, picnicking, and camping. There are also a number of historical and archaeological sites in the park, making it a great place to learn about Tunisia's rich history.
+Located at an altitude of 2,976 meters, the coordinates are 36.40291 N, 10.14292 E.
+Zaghouan Aqueduct is a historical monument located in Zaghouan, Tunisia. It is an ancient Roman aqueduct that used to transport water from springs in the Zaghouan Mountains to the city of Carthage. The aqueduct is a UNESCO World Heritage Site. It is known for its arches and viaducts, which are still standing today. The aqueduct is a popular tourist destination, and it offers a glimpse into the history and culture of Tunisia.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6139,12 +8646,60 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for something fun to do, check out TASSOU JUICE located at C45P+QV8 TASSOU JUICE, shr` l'rD, zGwn,, Zaghouan. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-00:00 . To get there, use these GPS coordinates: 36.402915, 10.142236. For more details, call them at 95 451 993</t>
+          <t>TASSOU JUICE is a restaurant located in Zaghouan, Tunisia, close to the city center. It's open every day from 7:00 AM to midnight and offers a variety of food options.</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant offering Restaurant options in Zaghouan, known for its exceptional 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore Parc National de Zaghouan, a beautiful park with stunning natural scenery.
+Mid-Morning: Visit Medina de Zaghouan, a historical site that offers a glimpse into the region's rich history.
+Midday: Try local cuisine at Bon'Gosto, a highly-rated pizzeria known for its delicious pizzas.
+Afternoon: Visit Zaghouan Aqueduct, a UNESCO World Heritage Site and an ancient Roman aqueduct that is a testament to the region's engineering prowess.
+Evening: Enjoy scenic views at the Natural Water Source, a waterbed store with a unique ambiance and a relaxing atmosphere.
+Night: Experience the vibrant nightlife at "Salle des fêtes mariem," a top-rated discotheque with a lively atmosphere and great music.</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Grech Coffee is a highly-rated (4.9 stars) cafe located in Zaghouan, Tunisia. It offers a cozy ambiance and serves a variety of coffee and other beverages, making it a popular spot for locals and tourists alike. The cafe is conveniently situated near the city center and is easily accessible.
+Located in the heart of Zaghouan, Time Out' is a cozy and welcoming establishment that offers a delightful café experience. With its convenient location, it's a perfect spot for locals and visitors alike. Time Out's menu features a tempting selection of drinks and snacks, making it an ideal place to relax and unwind.
+TASSOU JUICE is a restaurant located in Zaghouan, Tunisia, close to the city center. It's open every day from 7:00 AM to midnight and offers a variety of food options.
+Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, at coordinates (36.397737458615, 10.145884861582). With a rating of 4.6 based on 83 reviews, it's a popular destination for visitors interested in exploring the rich history of the region.
+Parc National de Zaghouan is a national park located in Zaghouan, Tunisia. It is an attraction for tourism with the latitude of 36.40291 and the longitude of 10.14292. It is open 24/7 and offers an unforgettable experience to its visitors.
+Zaghouan Aqueduct is a historical monument located in Zaghouan, Tunisia. It is an ancient Roman aqueduct that used to transport water from springs in the Zaghouan Mountains to the city of Carthage. The aqueduct is a UNESCO World Heritage Site. It is known for its arches and viaducts, which are still standing today. The aqueduct is a popular tourist destination, and it offers a glimpse into the history and culture of Tunisia.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6246,12 +8801,66 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for something fun to do, check out Layroo pizza located at C45Q+W26 Layroo pizza, Bd De La Terre, Zaghouan. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.402915, 10.142236. For more details, visit their website at https://www.google.com/maps/place/Layroo+pizza/data=!4m7!3m6!1s0x12fd1144d83965a7:0x47a3344782740bb1!8m2!3d36.4097833!4d10.1375071!16s%2Fg%2F11h_yv1by6!19sChIJp2U52EQR_RIRsQt0gkc0o0c?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Layroo pizza is a restaurant located at (36.402915, 10.142236) in zaghouan. It has a rating of 4.0 and is open from 09:00-00:00. It offers a variety of dishes and has a featured image of https://lh5.googleusercontent.com/p/AF1QipOj2MfYceAgDSZZYYbTWYRgJoXAh9o3Fnr52mbE=w408-h306-k-no.</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>What is the top-rated Restaurant destination in Zaghouan, and where can it be found?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historical Medina de Zaghouan (Landmark)
+**Mid-Morning:**
+- Visit the Zaghouan Aqueduct, a marvel of Roman engineering (Landmark)
+**Midday:**
+- Try local cuisine at LA COMIDA, known for its delicious food (Restaurant)
+**Afternoon:**
+- Enjoy the scenic beauty of Parc National de Zaghouan, hiking or picnicking (Park)
+**Evening:**
+- Relax with a massage at DAR AIDA ZAGHOUAN, a charming guesthouse (Spa/Hotel)
+**Night:**
+- Experience the vibrant nightlife at "Salle des fêtes mariem," a popular discotheque (Venue)</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Classico is a highly-rated cafe located in Zaghouan, Tunisia. It operates 24 hours a day, making it a convenient spot for both locals and tourists alike. The cafe offers a cozy and welcoming ambiance, with friendly staff and a great selection of beverages and snacks. Its central location, just off Av. 14 janvier, makes it easily accessible. Cafe Classico is known for its delicious coffee, tasty pastries, and warm atmosphere, making it a popular destination for coffee lovers and those seeking a relaxing break.
+Located in the heart of Zaghouan, Time Out' is a cozy and welcoming establishment that offers a delightful café experience. With its convenient location, it's a perfect spot for locals and visitors alike. Time Out's menu features a tempting selection of drinks and snacks, making it an ideal place to relax and unwind.
+LA COMIDA is a restaurant located in Cité el Bostene, Zaghouan, Tunisia. It is a great place to enjoy a delicious meal, with a rating of 4.3 out of 5 stars. You can contact LA COMIDA at 54 517 101.
+Résidence Séville is a hotel in Ain Zaghouan (GPS coordinates: 36.8608622, 10.2842497), Tunisia. You can contact them by phone at +216 27 678 391.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, at coordinates (36.397737458615, 10.145884861582). With a rating of 4.6 based on 83 reviews, it's a popular destination for visitors interested in exploring the rich history of the region.
+Parc National de Zaghouan is a national park located in Zaghouan, Tunisia. It is an attraction for tourism with the latitude of 36.40291 and the longitude of 10.14292. It is open 24/7 and offers an unforgettable experience to its visitors.
+The Zaghouan Aqueduct is a historic aqueduct located near the city of Mohammedia in Tunisia. Built in the 2nd century AD by the Romans, the aqueduct was used to transport water from the Zaghouan Mountains to the city of Carthage. The aqueduct is 132 kilometers long and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination and is also used for agricultural purposes.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6349,14 +8958,60 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in zaghouan and looking for transportation, check out station louage Zaghouan located at C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. 
-This destination is perfect for transportation lovers and offers a range of transportation services to choose from. 
-With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 36.408350259382, 10.145031666099.</t>
+          <t>Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>What is the name and location of a transportation destination in Zaghouan with a 3.3 rating that caters to transportation enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring Medina de Zaghouan, a historical site with well-preserved architecture and rich cultural heritage.
+Mid-Morning: Trying local cuisine at Bon'Gosto Pizzeria, which offers grilled dishes and is highly rated by customers.
+Midday: Visiting Parc National de Zaghouan, a stunning national park with unique scenic views. Enjoying an unforgettable experience amidst its diverse flora and fauna.
+Afternoon: Relaxing with a revitalizing spa treatment at Residence Seville - Ain Zaghouan, a 4.5-star hotel offering luxurious amenities and a serene atmosphere.
+Evening: Participating in an enthralling guided tour of the Zaghouan Aqueduct, an ancient marvel showcasing the architectural prowess of the Romans.
+Night: Enjoying scenic views at the Montagne de Zaghouan, a natural reserve renowned for its captivating landscapes and breathtaking sunsets.</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Given these locations:
+La Fabrica is a popular café located in Zaghouan, Tunisia. Known for its cozy ambiance and delectable offerings, La Fabrica has earned a 4.9 rating based on 24 reviews. It is renowned for its exquisite coffee and sweet treats. Customers rave about its 24/7 availability, making it an ideal spot for late-night cravings or early morning pick-me-ups.
+The Salon de Thé Damas, located at (36.402915, 10.142236) in Zaghouan, offers a cozy atmosphere for tea enthusiasts. With a rating of 4.1 out of 14 reviews, it has established itself as a popular destination. Opening daily from 7 am to 2 am, it's a great spot to relax and socialize over a cup of tea.
+Layroo pizza is a restaurant located at (36.402915, 10.142236) in zaghouan. It has a rating of 4.0 and is open from 09:00-00:00. It offers a variety of dishes and has a featured image of https://lh5.googleusercontent.com/p/AF1QipOj2MfYceAgDSZZYYbTWYRgJoXAh9o3Fnr52mbE=w408-h306-k-no.
+Residence Seville - Ain Zaghouan is a 4.5-star hotel located in zaghouan, Tunisia. It is praised by 8 reviewers and is easily accessible via Google Maps.
+DAR AIDA ZAGHOUAN is a Chambre d'hotes located in Zaghouan,Tunisia. It offers a variety of amenities, including a restaurant, a bar, and a garden. The guesthouse is situated in a convenient location, close to the city center and many of the city's attractions. The staff is friendly and helpful, and the rooms are clean and comfortable. The guesthouse also offers a variety of activities, such as hiking, biking, and swimming.
+Medina de Zaghouan is a historical site located in Zaghouan, Tunisia, known for its well-preserved historic architecture and rich cultural heritage. Its prime location offers a unique blend of history, culture, and local attractions.
+Parc National de Zaghouan is a national park located in Zaghouan, Tunisia. It is an attraction for tourism with the latitude of 36.40291 and the longitude of 10.14292. It is open 24/7 and offers an unforgettable experience to its visitors.
+The Zaghouan Aqueduct, located near the city of Zaghouan in Tunisia, is an ancient aqueduct built by the Romans to supply water to the city of Carthage. Constructed between 122 and 132 AD, the aqueduct is approximately 128 km in length and is considered to be one of the most impressive examples of Roman engineering in North Africa. Today, the aqueduct is a popular tourist destination, featuring well-preserved remains that offer a glimpse into the architectural prowess of the ancient Romans. Its coordinates are 36.686405012742, 10.150125779401.
+Natural Water Source is a Zaghouan-based waterbed store with a 3.7-star rating based on 3 reviews. Unfortunately, there is no additional information about the establishment's history, services, or offerings.
+The Montagne de Zaghouan is a natural reserve located in Zaghouan, Tunisia. It is known for its beautiful scenery, which includes forests, mountains, and lakes. The reserve is also home to a variety of wildlife, including birds, mammals, and reptiles. Visitors to the reserve can enjoy hiking, camping, and picnicking. The reserve is located at 36.44247 latitude and 10.17127 longitude.
+Discover "Salle des fêtes mariem", a top-rated discotheque in Zaghouan. With an impressive 4.3-star rating based on 3 reviews, this establishment offers an unforgettable entertainment experience. Located at C574+6GP in Cite Sanabel (36.402915, 10.142236), "Salle des fêtes mariem" is the ultimate destination for nightlife enthusiasts seeking a memorable time.
+Bon'Gosto is a pizzeria located in Zaghouan, Tunisia. It is also rated 5.0 out of 5 by its customers.
+BBQ Ain Zaghouane is a 5.0 rated restaurant located in Zaghouan. The restaurant offers grilled dishes and is located at the coordinates (36.85401, 10.2848).
+Choco Crepe located in Zaghouan, Tunisia is a family restaurant that offers a cozy and welcoming ambiance. With a rating of 5.0 based on 1 review, this restaurant is highly recommended. The exact location is at the coordinates (36.402915, 10.142236).
+Zaghouan's station louage is located at the following address: C42X+425 station louage Zaghouan, Av. de la Liberte, Zaghouan. Its coordinates are (36.408350259382, 10.145031666099) and it offers transportation services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
